--- a/CiP_Tutorial1/CIP_01_DoWES.Rotor_design_profile_data.SS2016.01.xlsx
+++ b/CiP_Tutorial1/CIP_01_DoWES.Rotor_design_profile_data.SS2016.01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="780" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="474" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="45">
   <si>
     <t>Nr.</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>lift to drag method:</t>
+  </si>
+  <si>
+    <t>C_l Max:</t>
+  </si>
+  <si>
+    <t>C_l Max * 0.8</t>
+  </si>
+  <si>
+    <t>C_l Max</t>
+  </si>
+  <si>
+    <t>0.8 * C_l Max</t>
   </si>
 </sst>
 </file>
@@ -609,14 +621,14 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium"/>
+      <right/>
       <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
+      <right style="medium"/>
       <top/>
       <bottom style="medium"/>
       <diagonal/>
@@ -718,7 +730,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -798,23 +810,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="17" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="17" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="17" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,11 +830,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="17" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="17" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="17" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,7 +862,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="17" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -866,7 +878,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="17" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -878,7 +890,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Neutral" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -951,7 +963,7 @@
   <dimension ref="B5:E84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="1" sqref="J38:M38 E12"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="J37:M37 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1033,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="n">
         <v>5</v>
       </c>
@@ -1118,6 +1130,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1136,13 +1150,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M84"/>
+  <dimension ref="B1:N86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="J38:M38 F6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="1" sqref="J37:M37 B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="15" width="4.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="15" width="19.1376518218624"/>
@@ -1150,25 +1164,26 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="15" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="20.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="15" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="15" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="15" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="15" width="12.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="15" width="10.8542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
-      <c r="H1" s="0"/>
+      <c r="G1" s="0"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
@@ -1178,38 +1193,41 @@
       <c r="D2" s="17"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
-      <c r="H2" s="0"/>
+      <c r="G2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="G3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
-      <c r="H4" s="0"/>
+      <c r="G4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
@@ -1227,14 +1245,15 @@
       <c r="F5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="0"/>
+      <c r="G5" s="18"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="20" t="n">
         <v>-180</v>
       </c>
@@ -1247,17 +1266,25 @@
       <c r="E6" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="H6" s="28" t="s">
+      <c r="F6" s="27" t="n">
+        <f aca="false">C6/D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="15" t="n">
+        <f aca="false">$F$85*C6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="28"/>
+      <c r="N6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="20" t="n">
         <v>-170</v>
       </c>
@@ -1270,15 +1297,23 @@
       <c r="E7" s="22" t="n">
         <v>0.4</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="H7" s="0"/>
+      <c r="F7" s="27" t="n">
+        <f aca="false">C7/D7</f>
+        <v>49.7890909090909</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="15" t="n">
+        <f aca="false">$F$85*C7</f>
+        <v>68.7214597682389</v>
+      </c>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="20" t="n">
         <v>-160</v>
       </c>
@@ -1291,15 +1326,23 @@
       <c r="E8" s="22" t="n">
         <v>0.0604639028197079</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="H8" s="0"/>
+      <c r="F8" s="27" t="n">
+        <f aca="false">C8/D8</f>
+        <v>10.6765987937749</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="15" t="n">
+        <f aca="false">$F$85*C8</f>
+        <v>137.442919536478</v>
+      </c>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="20" t="n">
         <v>-150</v>
       </c>
@@ -1312,15 +1355,23 @@
       <c r="E9" s="22" t="n">
         <v>0.159485923453676</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="H9" s="0"/>
+      <c r="F9" s="27" t="n">
+        <f aca="false">C9/D9</f>
+        <v>2.93506249637827</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="15" t="n">
+        <f aca="false">$F$85*C9</f>
+        <v>132.604662676896</v>
+      </c>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="20" t="n">
         <v>-140</v>
       </c>
@@ -1333,15 +1384,23 @@
       <c r="E10" s="22" t="n">
         <v>0.219936980164947</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="H10" s="0"/>
+      <c r="F10" s="27" t="n">
+        <f aca="false">C10/D10</f>
+        <v>1.39177176122681</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="15" t="n">
+        <f aca="false">$F$85*C10</f>
+        <v>118.241664277653</v>
+      </c>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="20" t="n">
         <v>-130</v>
       </c>
@@ -1354,15 +1413,23 @@
       <c r="E11" s="22" t="n">
         <v>0.27911078305082</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="H11" s="0"/>
+      <c r="F11" s="27" t="n">
+        <f aca="false">C11/D11</f>
+        <v>0.806773402924298</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="15" t="n">
+        <f aca="false">$F$85*C11</f>
+        <v>102.903499552981</v>
+      </c>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="20" t="n">
         <v>-120</v>
       </c>
@@ -1375,15 +1442,23 @@
       <c r="E12" s="22" t="n">
         <v>0.341994012526358</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="H12" s="0"/>
+      <c r="F12" s="27" t="n">
+        <f aca="false">C12/D12</f>
+        <v>0.493304798020358</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="15" t="n">
+        <f aca="false">$F$85*C12</f>
+        <v>82.8701211786582</v>
+      </c>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="20" t="n">
         <v>-110</v>
       </c>
@@ -1396,15 +1471,23 @@
       <c r="E13" s="22" t="n">
         <v>0.405059463542859</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="H13" s="0"/>
+      <c r="F13" s="27" t="n">
+        <f aca="false">C13/D13</f>
+        <v>0.28681739155833</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="15" t="n">
+        <f aca="false">$F$85*C13</f>
+        <v>57.8223806336371</v>
+      </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="20" t="n">
         <v>-100</v>
       </c>
@@ -1417,15 +1500,23 @@
       <c r="E14" s="22" t="n">
         <v>0.461741451298696</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="H14" s="0"/>
+      <c r="F14" s="27" t="n">
+        <f aca="false">C14/D14</f>
+        <v>0.130503836428162</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="15" t="n">
+        <f aca="false">$F$85*C14</f>
+        <v>29.3042306926711</v>
+      </c>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="20" t="n">
         <v>-90</v>
       </c>
@@ -1438,15 +1529,23 @@
       <c r="E15" s="22" t="n">
         <v>0.504835445205479</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="H15" s="0"/>
+      <c r="F15" s="27" t="n">
+        <f aca="false">C15/D15</f>
+        <v>-4.28612223837832E-017</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="15" t="n">
+        <f aca="false">$F$85*C15</f>
+        <v>-1.00422843693515E-014</v>
+      </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="20" t="n">
         <v>-80</v>
       </c>
@@ -1459,15 +1558,23 @@
       <c r="E16" s="22" t="n">
         <v>0.518682878449142</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="H16" s="0"/>
+      <c r="F16" s="27" t="n">
+        <f aca="false">C16/D16</f>
+        <v>-0.130503836428162</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="15" t="n">
+        <f aca="false">$F$85*C16</f>
+        <v>-29.3042306926711</v>
+      </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="20" t="n">
         <v>-70</v>
       </c>
@@ -1480,15 +1587,23 @@
       <c r="E17" s="22" t="n">
         <v>0.513761188235929</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="H17" s="0"/>
+      <c r="F17" s="27" t="n">
+        <f aca="false">C17/D17</f>
+        <v>-0.28681739155833</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="15" t="n">
+        <f aca="false">$F$85*C17</f>
+        <v>-57.8223806336371</v>
+      </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="20" t="n">
         <v>-60</v>
       </c>
@@ -1501,15 +1616,23 @@
       <c r="E18" s="22" t="n">
         <v>0.496044136562936</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="H18" s="0"/>
+      <c r="F18" s="27" t="n">
+        <f aca="false">C18/D18</f>
+        <v>-0.493304798020358</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="15" t="n">
+        <f aca="false">$F$85*C18</f>
+        <v>-82.8701211786582</v>
+      </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="20" t="n">
         <v>-50</v>
       </c>
@@ -1522,15 +1645,23 @@
       <c r="E19" s="22" t="n">
         <v>0.475374599319078</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="H19" s="0"/>
+      <c r="F19" s="27" t="n">
+        <f aca="false">C19/D19</f>
+        <v>-0.806773402924298</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="15" t="n">
+        <f aca="false">$F$85*C19</f>
+        <v>-102.903499552981</v>
+      </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="20" t="n">
         <v>-40</v>
       </c>
@@ -1543,15 +1674,23 @@
       <c r="E20" s="22" t="n">
         <v>0.466931947978781</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="H20" s="0"/>
+      <c r="F20" s="27" t="n">
+        <f aca="false">C20/D20</f>
+        <v>-1.39177176122681</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="15" t="n">
+        <f aca="false">$F$85*C20</f>
+        <v>-118.241664277653</v>
+      </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="20" t="n">
         <v>-30</v>
       </c>
@@ -1564,15 +1703,23 @@
       <c r="E21" s="22" t="n">
         <v>0.499274574268958</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="H21" s="0"/>
+      <c r="F21" s="27" t="n">
+        <f aca="false">C21/D21</f>
+        <v>-2.93506249637827</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="15" t="n">
+        <f aca="false">$F$85*C21</f>
+        <v>-132.604662676896</v>
+      </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="20" t="n">
         <v>-20</v>
       </c>
@@ -1585,15 +1732,23 @@
       <c r="E22" s="22" t="n">
         <v>0.578066152704327</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="27" t="n">
+        <f aca="false">C22/D22</f>
+        <v>-7.93592302156671</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="15" t="n">
+        <f aca="false">$F$85*C22</f>
+        <v>-134.222040280725</v>
+      </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="20" t="n">
         <v>-10</v>
       </c>
@@ -1606,15 +1761,23 @@
       <c r="E23" s="22" t="n">
         <v>0.374421930328227</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="H23" s="0"/>
+      <c r="F23" s="27" t="n">
+        <f aca="false">C23/D23</f>
+        <v>-5.62050798817835</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="15" t="n">
+        <f aca="false">$F$85*C23</f>
+        <v>-49.3961842337196</v>
+      </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="20" t="n">
         <v>0</v>
       </c>
@@ -1627,15 +1790,23 @@
       <c r="E24" s="22" t="n">
         <v>0.0836</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="H24" s="0"/>
+      <c r="F24" s="27" t="n">
+        <f aca="false">C24/D24</f>
+        <v>76.2370062370062</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="15" t="n">
+        <f aca="false">$F$85*C24</f>
+        <v>50.6138168761221</v>
+      </c>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="20" t="n">
         <v>0.5</v>
       </c>
@@ -1648,15 +1819,23 @@
       <c r="E25" s="22" t="n">
         <v>0.0841</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="H25" s="0"/>
+      <c r="F25" s="27" t="n">
+        <f aca="false">C25/D25</f>
+        <v>87.2895277207392</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="15" t="n">
+        <f aca="false">$F$85*C25</f>
+        <v>58.6744847396768</v>
+      </c>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="20" t="n">
         <v>1</v>
       </c>
@@ -1669,15 +1848,23 @@
       <c r="E26" s="22" t="n">
         <v>0.0847</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="H26" s="0"/>
+      <c r="F26" s="27" t="n">
+        <f aca="false">C26/D26</f>
+        <v>98.6530612244898</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="15" t="n">
+        <f aca="false">$F$85*C26</f>
+        <v>66.7213500897666</v>
+      </c>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="20" t="n">
         <v>1.5</v>
       </c>
@@ -1690,15 +1877,23 @@
       <c r="E27" s="22" t="n">
         <v>0.0853</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="H27" s="0"/>
+      <c r="F27" s="27" t="n">
+        <f aca="false">C27/D27</f>
+        <v>108.714859437751</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="15" t="n">
+        <f aca="false">$F$85*C27</f>
+        <v>74.7268078994614</v>
+      </c>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="20" t="n">
         <v>2</v>
       </c>
@@ -1711,15 +1906,23 @@
       <c r="E28" s="22" t="n">
         <v>0.0857</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="H28" s="0"/>
+      <c r="F28" s="27" t="n">
+        <f aca="false">C28/D28</f>
+        <v>117.642436149312</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="15" t="n">
+        <f aca="false">$F$85*C28</f>
+        <v>82.6494506283662</v>
+      </c>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="20" t="n">
         <v>2.5</v>
       </c>
@@ -1732,15 +1935,23 @@
       <c r="E29" s="22" t="n">
         <v>0.0862</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="H29" s="0"/>
+      <c r="F29" s="27" t="n">
+        <f aca="false">C29/D29</f>
+        <v>126.45472061657</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="15" t="n">
+        <f aca="false">$F$85*C29</f>
+        <v>90.5858958707361</v>
+      </c>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="20" t="n">
         <v>3</v>
       </c>
@@ -1753,15 +1964,23 @@
       <c r="E30" s="22" t="n">
         <v>0.0865</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="H30" s="0"/>
+      <c r="F30" s="27" t="n">
+        <f aca="false">C30/D30</f>
+        <v>132.985074626866</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="15" t="n">
+        <f aca="false">$F$85*C30</f>
+        <v>98.384315978456</v>
+      </c>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="20" t="n">
         <v>3.5</v>
       </c>
@@ -1774,15 +1993,23 @@
       <c r="E31" s="22" t="n">
         <v>0.0867</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="H31" s="0"/>
+      <c r="F31" s="27" t="n">
+        <f aca="false">C31/D31</f>
+        <v>138.02513464991</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="15" t="n">
+        <f aca="false">$F$85*C31</f>
+        <v>106.113723518851</v>
+      </c>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="20" t="n">
         <v>4</v>
       </c>
@@ -1795,15 +2022,23 @@
       <c r="E32" s="22" t="n">
         <v>0.0862</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="H32" s="0"/>
+      <c r="F32" s="27" t="n">
+        <f aca="false">C32/D32</f>
+        <v>133.849918433931</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="15" t="n">
+        <f aca="false">$F$85*C32</f>
+        <v>113.249622980251</v>
+      </c>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="20" t="n">
         <v>4.5</v>
       </c>
@@ -1816,15 +2051,23 @@
       <c r="E33" s="22" t="n">
         <v>0.0848</v>
       </c>
-      <c r="F33" s="42"/>
-      <c r="H33" s="0"/>
+      <c r="F33" s="27" t="n">
+        <f aca="false">C33/D33</f>
+        <v>118.399452804378</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="15" t="n">
+        <f aca="false">$F$85*C33</f>
+        <v>119.460754039497</v>
+      </c>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="20" t="n">
         <v>5</v>
       </c>
@@ -1837,15 +2080,23 @@
       <c r="E34" s="22" t="n">
         <v>0.0837</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="H34" s="0"/>
+      <c r="F34" s="27" t="n">
+        <f aca="false">C34/D34</f>
+        <v>108.972520908005</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="15" t="n">
+        <f aca="false">$F$85*C34</f>
+        <v>125.892725314183</v>
+      </c>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="20" t="n">
         <v>5.5</v>
       </c>
@@ -1858,15 +2109,23 @@
       <c r="E35" s="22" t="n">
         <v>0.0829</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="H35" s="0"/>
+      <c r="F35" s="27" t="n">
+        <f aca="false">C35/D35</f>
+        <v>103.837837837838</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="15" t="n">
+        <f aca="false">$F$85*C35</f>
+        <v>132.573141831239</v>
+      </c>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="20" t="n">
         <v>6</v>
       </c>
@@ -1879,23 +2138,31 @@
       <c r="E36" s="22" t="n">
         <v>0.0824</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31" t="s">
+      <c r="F36" s="27" t="n">
+        <f aca="false">C36/D36</f>
+        <v>101.44578313253</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="15" t="n">
+        <f aca="false">$F$85*C36</f>
+        <v>139.460596050269</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="L36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="L36" s="32" t="s">
+      <c r="M36" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="M36" s="33" t="s">
+      <c r="N36" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="20" t="n">
         <v>6.5</v>
       </c>
@@ -1908,17 +2175,25 @@
       <c r="E37" s="22" t="n">
         <v>0.0818</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="H37" s="34" t="s">
+      <c r="F37" s="27" t="n">
+        <f aca="false">C37/D37</f>
+        <v>99.8399246704331</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="15" t="n">
+        <f aca="false">$F$85*C37</f>
+        <v>146.3480502693</v>
+      </c>
+      <c r="I37" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="34"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="20" t="n">
         <v>7</v>
       </c>
@@ -1931,17 +2206,33 @@
       <c r="E38" s="22" t="n">
         <v>0.0814</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="H38" s="37" t="s">
+      <c r="F38" s="27" t="n">
+        <f aca="false">C38/D38</f>
+        <v>99.5698924731183</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="15" t="n">
+        <f aca="false">$F$85*C38</f>
+        <v>153.37352962298</v>
+      </c>
+      <c r="I38" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="38"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="35"/>
+      <c r="K38" s="20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L38" s="21" t="n">
+        <v>0.7688</v>
+      </c>
+      <c r="M38" s="21" t="n">
+        <v>0.00557</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>0.0867</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="20" t="n">
         <v>7.5</v>
       </c>
@@ -1954,9 +2245,17 @@
       <c r="E39" s="22" t="n">
         <v>0.0809</v>
       </c>
-      <c r="F39" s="42"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="27" t="n">
+        <f aca="false">C39/D39</f>
+        <v>99.1887275832621</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="15" t="n">
+        <f aca="false">$F$85*C39</f>
+        <v>160.316193895871</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="20" t="n">
         <v>8</v>
       </c>
@@ -1969,9 +2268,17 @@
       <c r="E40" s="22" t="n">
         <v>0.0804</v>
       </c>
-      <c r="F40" s="42"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="27" t="n">
+        <f aca="false">C40/D40</f>
+        <v>99.4257588187038</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="15" t="n">
+        <f aca="false">$F$85*C40</f>
+        <v>167.286463195691</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="20" t="n">
         <v>8.5</v>
       </c>
@@ -1984,9 +2291,17 @@
       <c r="E41" s="22" t="n">
         <v>0.0795</v>
       </c>
-      <c r="F41" s="42"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="27" t="n">
+        <f aca="false">C41/D41</f>
+        <v>98.107476635514</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="15" t="n">
+        <f aca="false">$F$85*C41</f>
+        <v>173.870262118492</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="20" t="n">
         <v>9</v>
       </c>
@@ -1999,9 +2314,17 @@
       <c r="E42" s="22" t="n">
         <v>0.0788</v>
       </c>
-      <c r="F42" s="42"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="27" t="n">
+        <f aca="false">C42/D42</f>
+        <v>98.1545386346587</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="15" t="n">
+        <f aca="false">$F$85*C42</f>
+        <v>180.592086175943</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="20" t="n">
         <v>9.5</v>
       </c>
@@ -2014,9 +2337,17 @@
       <c r="E43" s="22" t="n">
         <v>0.0774</v>
       </c>
-      <c r="F43" s="42"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="27" t="n">
+        <f aca="false">C43/D43</f>
+        <v>95.9078014184397</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="15" t="n">
+        <f aca="false">$F$85*C43</f>
+        <v>186.651389587074</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="20" t="n">
         <v>10</v>
       </c>
@@ -2029,9 +2360,17 @@
       <c r="E44" s="22" t="n">
         <v>0.0762</v>
       </c>
-      <c r="F44" s="42"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="27" t="n">
+        <f aca="false">C44/D44</f>
+        <v>94.8404616429056</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="15" t="n">
+        <f aca="false">$F$85*C44</f>
+        <v>192.821113105925</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="20" t="n">
         <v>10.5</v>
       </c>
@@ -2044,9 +2383,17 @@
       <c r="E45" s="22" t="n">
         <v>0.0738</v>
       </c>
-      <c r="F45" s="42"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="27" t="n">
+        <f aca="false">C45/D45</f>
+        <v>93.0933852140078</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="15" t="n">
+        <f aca="false">$F$85*C45</f>
+        <v>198.135080789946</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="20" t="n">
         <v>11</v>
       </c>
@@ -2059,9 +2406,17 @@
       <c r="E46" s="22" t="n">
         <v>0.0713</v>
       </c>
-      <c r="F46" s="42"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="27" t="n">
+        <f aca="false">C46/D46</f>
+        <v>89.8046398046398</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="15" t="n">
+        <f aca="false">$F$85*C46</f>
+        <v>203.034973070018</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="20" t="n">
         <v>11.5</v>
       </c>
@@ -2074,9 +2429,17 @@
       <c r="E47" s="22" t="n">
         <v>0.0675</v>
       </c>
-      <c r="F47" s="42"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="27" t="n">
+        <f aca="false">C47/D47</f>
+        <v>84.9659477866061</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="15" t="n">
+        <f aca="false">$F$85*C47</f>
+        <v>206.637429084381</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="20" t="n">
         <v>12</v>
       </c>
@@ -2089,9 +2452,17 @@
       <c r="E48" s="22" t="n">
         <v>0.0641</v>
       </c>
-      <c r="F48" s="42"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="27" t="n">
+        <f aca="false">C48/D48</f>
+        <v>82.5879805089334</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="15" t="n">
+        <f aca="false">$F$85*C48</f>
+        <v>210.543540394973</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="20" t="n">
         <v>12.5</v>
       </c>
@@ -2104,9 +2475,17 @@
       <c r="E49" s="22" t="n">
         <v>0.0617</v>
       </c>
-      <c r="F49" s="42"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="27" t="n">
+        <f aca="false">C49/D49</f>
+        <v>78.5259969712267</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="15" t="n">
+        <f aca="false">$F$85*C49</f>
+        <v>214.7118994614</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="20" t="n">
         <v>13</v>
       </c>
@@ -2119,9 +2498,17 @@
       <c r="E50" s="22" t="n">
         <v>0.0591</v>
       </c>
-      <c r="F50" s="42"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="27" t="n">
+        <f aca="false">C50/D50</f>
+        <v>73.6469492314858</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="15" t="n">
+        <f aca="false">$F$85*C50</f>
+        <v>218.245342908438</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="20" t="n">
         <v>13.5</v>
       </c>
@@ -2134,9 +2521,17 @@
       <c r="E51" s="22" t="n">
         <v>0.0564</v>
       </c>
-      <c r="F51" s="42"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="27" t="n">
+        <f aca="false">C51/D51</f>
+        <v>68.1045473863153</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="15" t="n">
+        <f aca="false">$F$85*C51</f>
+        <v>221.185278276481</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="20" t="n">
         <v>14</v>
       </c>
@@ -2149,9 +2544,17 @@
       <c r="E52" s="22" t="n">
         <v>0.0536</v>
       </c>
-      <c r="F52" s="42"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="27" t="n">
+        <f aca="false">C52/D52</f>
+        <v>62.2893420546364</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="15" t="n">
+        <f aca="false">$F$85*C52</f>
+        <v>223.44889048474</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="20" t="n">
         <v>14.5</v>
       </c>
@@ -2164,9 +2567,17 @@
       <c r="E53" s="22" t="n">
         <v>0.0508</v>
       </c>
-      <c r="F53" s="42"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="27" t="n">
+        <f aca="false">C53/D53</f>
+        <v>55.8785175017159</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="15" t="n">
+        <f aca="false">$F$85*C53</f>
+        <v>224.746326750449</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="20" t="n">
         <v>15</v>
       </c>
@@ -2179,9 +2590,17 @@
       <c r="E54" s="22" t="n">
         <v>0.0476</v>
       </c>
-      <c r="F54" s="42"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="27" t="n">
+        <f aca="false">C54/D54</f>
+        <v>48.7642471505699</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="15" t="n">
+        <f aca="false">$F$85*C54</f>
+        <v>224.401263913824</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="20" t="n">
         <v>15.5</v>
       </c>
@@ -2194,9 +2613,17 @@
       <c r="E55" s="22" t="n">
         <v>0.0464</v>
       </c>
-      <c r="F55" s="42"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="27" t="n">
+        <f aca="false">C55/D55</f>
+        <v>46.0777187587364</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="15" t="n">
+        <f aca="false">$F$85*C55</f>
+        <v>227.493026929982</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="20" t="n">
         <v>16</v>
       </c>
@@ -2209,9 +2636,17 @@
       <c r="E56" s="22" t="n">
         <v>0.0453</v>
       </c>
-      <c r="F56" s="42"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="27" t="n">
+        <f aca="false">C56/D56</f>
+        <v>42.7375449409348</v>
+      </c>
+      <c r="G56" s="27"/>
+      <c r="H56" s="15" t="n">
+        <f aca="false">$F$85*C56</f>
+        <v>229.701429084381</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="20" t="n">
         <v>16.5</v>
       </c>
@@ -2224,9 +2659,17 @@
       <c r="E57" s="22" t="n">
         <v>0.0443</v>
       </c>
-      <c r="F57" s="42"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="27" t="n">
+        <f aca="false">C57/D57</f>
+        <v>39.3126905934788</v>
+      </c>
+      <c r="G57" s="27"/>
+      <c r="H57" s="15" t="n">
+        <f aca="false">$F$85*C57</f>
+        <v>231.316323159785</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="20" t="n">
         <v>17</v>
       </c>
@@ -2239,9 +2682,17 @@
       <c r="E58" s="22" t="n">
         <v>0.0436</v>
       </c>
-      <c r="F58" s="42"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="27" t="n">
+        <f aca="false">C58/D58</f>
+        <v>36.0500427715997</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="15" t="n">
+        <f aca="false">$F$85*C58</f>
+        <v>232.668969479354</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="20" t="n">
         <v>17.5</v>
       </c>
@@ -2254,9 +2705,17 @@
       <c r="E59" s="22" t="n">
         <v>0.0434</v>
       </c>
-      <c r="F59" s="42"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="27" t="n">
+        <f aca="false">C59/D59</f>
+        <v>32.8601941747573</v>
+      </c>
+      <c r="G59" s="27"/>
+      <c r="H59" s="15" t="n">
+        <f aca="false">$F$85*C59</f>
+        <v>233.579935368043</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="20" t="n">
         <v>18</v>
       </c>
@@ -2269,9 +2728,17 @@
       <c r="E60" s="22" t="n">
         <v>0.0435</v>
       </c>
-      <c r="F60" s="42"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="27" t="n">
+        <f aca="false">C60/D60</f>
+        <v>29.8890063424947</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="15" t="n">
+        <f aca="false">$F$85*C60</f>
+        <v>234.159640933573</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="20" t="n">
         <v>18.5</v>
       </c>
@@ -2284,9 +2751,17 @@
       <c r="E61" s="22" t="n">
         <v>0.0441</v>
       </c>
-      <c r="F61" s="42"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="27" t="n">
+        <f aca="false">C61/D61</f>
+        <v>27.1122823830059</v>
+      </c>
+      <c r="G61" s="27"/>
+      <c r="H61" s="15" t="n">
+        <f aca="false">$F$85*C61</f>
+        <v>234.297666068223</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="20" t="n">
         <v>19</v>
       </c>
@@ -2299,9 +2774,17 @@
       <c r="E62" s="22" t="n">
         <v>0.0451</v>
       </c>
-      <c r="F62" s="42"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="27" t="n">
+        <f aca="false">C62/D62</f>
+        <v>24.5082441423199</v>
+      </c>
+      <c r="G62" s="27"/>
+      <c r="H62" s="15" t="n">
+        <f aca="false">$F$85*C62</f>
+        <v>233.883590664273</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="20" t="n">
         <v>19.5</v>
       </c>
@@ -2314,9 +2797,17 @@
       <c r="E63" s="22" t="n">
         <v>0.0467</v>
       </c>
-      <c r="F63" s="42"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="27" t="n">
+        <f aca="false">C63/D63</f>
+        <v>22.095001308558</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="15" t="n">
+        <f aca="false">$F$85*C63</f>
+        <v>233.055439856373</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="20" t="n">
         <v>20</v>
       </c>
@@ -2329,9 +2820,17 @@
       <c r="E64" s="22" t="n">
         <v>0.0492</v>
       </c>
-      <c r="F64" s="42"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="27" t="n">
+        <f aca="false">C64/D64</f>
+        <v>19.6399249354914</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="15" t="n">
+        <f aca="false">$F$85*C64</f>
+        <v>231.123087971275</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="20" t="n">
         <v>20.5</v>
       </c>
@@ -2344,9 +2843,17 @@
       <c r="E65" s="22" t="n">
         <v>0.0526</v>
       </c>
-      <c r="F65" s="42"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="27" t="n">
+        <f aca="false">C65/D65</f>
+        <v>17.4547177759056</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="15" t="n">
+        <f aca="false">$F$85*C65</f>
+        <v>228.776660682226</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="20" t="n">
         <v>21</v>
       </c>
@@ -2359,9 +2866,17 @@
       <c r="E66" s="22" t="n">
         <v>0.0571</v>
       </c>
-      <c r="F66" s="42"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="27" t="n">
+        <f aca="false">C66/D66</f>
+        <v>15.4230732949722</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="15" t="n">
+        <f aca="false">$F$85*C66</f>
+        <v>225.671095152603</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="20" t="n">
         <v>21.5</v>
       </c>
@@ -2374,9 +2889,17 @@
       <c r="E67" s="22" t="n">
         <v>0.0632</v>
       </c>
-      <c r="F67" s="42"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="27" t="n">
+        <f aca="false">C67/D67</f>
+        <v>13.4742060157957</v>
+      </c>
+      <c r="G67" s="27"/>
+      <c r="H67" s="15" t="n">
+        <f aca="false">$F$85*C67</f>
+        <v>221.350908438061</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="20" t="n">
         <v>22</v>
       </c>
@@ -2389,9 +2912,17 @@
       <c r="E68" s="22" t="n">
         <v>0.0712</v>
       </c>
-      <c r="F68" s="42"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="27" t="n">
+        <f aca="false">C68/D68</f>
+        <v>11.6506589233862</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="15" t="n">
+        <f aca="false">$F$85*C68</f>
+        <v>215.98173070018</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="20" t="n">
         <v>30</v>
       </c>
@@ -2404,9 +2935,17 @@
       <c r="E69" s="22" t="n">
         <v>-0.0268660573095338</v>
       </c>
-      <c r="F69" s="42"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="27" t="n">
+        <f aca="false">C69/D69</f>
+        <v>4.19294642339755</v>
+      </c>
+      <c r="G69" s="27"/>
+      <c r="H69" s="15" t="n">
+        <f aca="false">$F$85*C69</f>
+        <v>189.435232395566</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="20" t="n">
         <v>40</v>
       </c>
@@ -2419,9 +2958,17 @@
       <c r="E70" s="22" t="n">
         <v>-0.0963082765081946</v>
       </c>
-      <c r="F70" s="42"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="27" t="n">
+        <f aca="false">C70/D70</f>
+        <v>1.98824537318115</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="15" t="n">
+        <f aca="false">$F$85*C70</f>
+        <v>168.916663253789</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="20" t="n">
         <v>50</v>
       </c>
@@ -2434,9 +2981,17 @@
       <c r="E71" s="22" t="n">
         <v>-0.152557878107214</v>
       </c>
-      <c r="F71" s="42"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="27" t="n">
+        <f aca="false">C71/D71</f>
+        <v>1.152533432749</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="15" t="n">
+        <f aca="false">$F$85*C71</f>
+        <v>147.004999361402</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="20" t="n">
         <v>60</v>
       </c>
@@ -2449,9 +3004,17 @@
       <c r="E72" s="22" t="n">
         <v>-0.205919699433918</v>
       </c>
-      <c r="F72" s="42"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="27" t="n">
+        <f aca="false">C72/D72</f>
+        <v>0.704721140029084</v>
+      </c>
+      <c r="G72" s="27"/>
+      <c r="H72" s="15" t="n">
+        <f aca="false">$F$85*C72</f>
+        <v>118.385887398083</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="20" t="n">
         <v>70</v>
       </c>
@@ -2464,9 +3027,17 @@
       <c r="E73" s="22" t="n">
         <v>-0.257288342147283</v>
       </c>
-      <c r="F73" s="42"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="27" t="n">
+        <f aca="false">C73/D73</f>
+        <v>0.409739130797614</v>
+      </c>
+      <c r="G73" s="27"/>
+      <c r="H73" s="15" t="n">
+        <f aca="false">$F$85*C73</f>
+        <v>82.6034009051958</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="20" t="n">
         <v>80</v>
       </c>
@@ -2479,9 +3050,17 @@
       <c r="E74" s="22" t="n">
         <v>-0.304496175628409</v>
       </c>
-      <c r="F74" s="42"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="27" t="n">
+        <f aca="false">C74/D74</f>
+        <v>0.186434052040231</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="15" t="n">
+        <f aca="false">$F$85*C74</f>
+        <v>41.863186703816</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="20" t="n">
         <v>90</v>
       </c>
@@ -2494,9 +3073,17 @@
       <c r="E75" s="22" t="n">
         <v>-0.34391455479452</v>
       </c>
-      <c r="F75" s="42"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="27" t="n">
+        <f aca="false">C75/D75</f>
+        <v>6.12303176911187E-017</v>
+      </c>
+      <c r="G75" s="27"/>
+      <c r="H75" s="15" t="n">
+        <f aca="false">$F$85*C75</f>
+        <v>1.43461205276449E-014</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="20" t="n">
         <v>100</v>
       </c>
@@ -2509,9 +3096,17 @@
       <c r="E76" s="22" t="n">
         <v>-0.357761988038183</v>
       </c>
-      <c r="F76" s="42"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="27" t="n">
+        <f aca="false">C76/D76</f>
+        <v>-0.130503836428162</v>
+      </c>
+      <c r="G76" s="27"/>
+      <c r="H76" s="15" t="n">
+        <f aca="false">$F$85*C76</f>
+        <v>-29.3042306926711</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="20" t="n">
         <v>110</v>
       </c>
@@ -2524,9 +3119,17 @@
       <c r="E77" s="22" t="n">
         <v>-0.35284029782497</v>
       </c>
-      <c r="F77" s="42"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="27" t="n">
+        <f aca="false">C77/D77</f>
+        <v>-0.28681739155833</v>
+      </c>
+      <c r="G77" s="27"/>
+      <c r="H77" s="15" t="n">
+        <f aca="false">$F$85*C77</f>
+        <v>-57.8223806336371</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="20" t="n">
         <v>120</v>
       </c>
@@ -2539,9 +3142,17 @@
       <c r="E78" s="22" t="n">
         <v>-0.335123246151978</v>
       </c>
-      <c r="F78" s="42"/>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="27" t="n">
+        <f aca="false">C78/D78</f>
+        <v>-0.493304798020358</v>
+      </c>
+      <c r="G78" s="27"/>
+      <c r="H78" s="15" t="n">
+        <f aca="false">$F$85*C78</f>
+        <v>-82.8701211786582</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="20" t="n">
         <v>130</v>
       </c>
@@ -2554,9 +3165,17 @@
       <c r="E79" s="22" t="n">
         <v>-0.314453708908119</v>
       </c>
-      <c r="F79" s="42"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="27" t="n">
+        <f aca="false">C79/D79</f>
+        <v>-0.806773402924298</v>
+      </c>
+      <c r="G79" s="27"/>
+      <c r="H79" s="15" t="n">
+        <f aca="false">$F$85*C79</f>
+        <v>-102.903499552981</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="20" t="n">
         <v>140</v>
       </c>
@@ -2569,9 +3188,17 @@
       <c r="E80" s="22" t="n">
         <v>-0.306011057567822</v>
       </c>
-      <c r="F80" s="42"/>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="27" t="n">
+        <f aca="false">C80/D80</f>
+        <v>-1.39177176122681</v>
+      </c>
+      <c r="G80" s="27"/>
+      <c r="H80" s="15" t="n">
+        <f aca="false">$F$85*C80</f>
+        <v>-118.241664277653</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="20" t="n">
         <v>150</v>
       </c>
@@ -2584,9 +3211,17 @@
       <c r="E81" s="22" t="n">
         <v>-0.338353683857999</v>
       </c>
-      <c r="F81" s="42"/>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="27" t="n">
+        <f aca="false">C81/D81</f>
+        <v>-2.93506249637827</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="15" t="n">
+        <f aca="false">$F$85*C81</f>
+        <v>-132.604662676896</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="20" t="n">
         <v>160</v>
       </c>
@@ -2599,9 +3234,17 @@
       <c r="E82" s="22" t="n">
         <v>-0.423350226548137</v>
       </c>
-      <c r="F82" s="42"/>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="27" t="n">
+        <f aca="false">C82/D82</f>
+        <v>-10.6765987937749</v>
+      </c>
+      <c r="G82" s="27"/>
+      <c r="H82" s="15" t="n">
+        <f aca="false">$F$85*C82</f>
+        <v>-137.442919536478</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="20" t="n">
         <v>170</v>
       </c>
@@ -2614,9 +3257,17 @@
       <c r="E83" s="21" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F83" s="42"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="27" t="n">
+        <f aca="false">C83/D83</f>
+        <v>-49.7890909090909</v>
+      </c>
+      <c r="G83" s="27"/>
+      <c r="H83" s="15" t="n">
+        <f aca="false">$F$85*C83</f>
+        <v>-68.7214597682389</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="25" t="n">
         <v>180</v>
       </c>
@@ -2629,13 +3280,47 @@
       <c r="E84" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="F84" s="45"/>
+      <c r="F84" s="27" t="n">
+        <f aca="false">C84/D84</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="27"/>
+      <c r="H84" s="15" t="n">
+        <f aca="false">$F$85*C84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="15" t="n">
+        <f aca="false">MAX(C6:C84)</f>
+        <v>1.6975</v>
+      </c>
+      <c r="F85" s="15" t="n">
+        <f aca="false">MAX(F6:F84)</f>
+        <v>138.02513464991</v>
+      </c>
+      <c r="H85" s="15" t="n">
+        <f aca="false">MAX(H6:H84)</f>
+        <v>234.297666068223</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="15" t="n">
+        <f aca="false">0.8*C85</f>
+        <v>1.358</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2655,7 +3340,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="J38:M38 F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="J37:M37 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2793,7 +3478,7 @@
       <c r="E7" s="22" t="n">
         <v>0.4</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="39"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -2815,7 +3500,7 @@
       <c r="E8" s="22" t="n">
         <v>0.0165585107877972</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="39"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
@@ -2837,7 +3522,7 @@
       <c r="E9" s="22" t="n">
         <v>0.125764668459162</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="39"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -2859,7 +3544,7 @@
       <c r="E10" s="22" t="n">
         <v>0.193531425625562</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="39"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -2881,7 +3566,7 @@
       <c r="E11" s="22" t="n">
         <v>0.256947682664055</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="39"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -2903,7 +3588,7 @@
       <c r="E12" s="22" t="n">
         <v>0.32252054220764</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="39"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -2925,7 +3610,7 @@
       <c r="E13" s="22" t="n">
         <v>0.387437974239721</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="39"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -2947,7 +3632,7 @@
       <c r="E14" s="22" t="n">
         <v>0.445572797203107</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="39"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -2969,7 +3654,7 @@
       <c r="E15" s="22" t="n">
         <v>0.490021632996633</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="39"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -2991,7 +3676,7 @@
       <c r="E16" s="22" t="n">
         <v>0.510285901783831</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -3013,7 +3698,7 @@
       <c r="E17" s="22" t="n">
         <v>0.511629267114408</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -3035,7 +3720,7 @@
       <c r="E18" s="22" t="n">
         <v>0.499251443425352</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="39"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
@@ -3057,7 +3742,7 @@
       <c r="E19" s="22" t="n">
         <v>0.482383613060155</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="39"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
@@ -3079,7 +3764,7 @@
       <c r="E20" s="22" t="n">
         <v>0.47585237618914</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="39"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
@@ -3101,7 +3786,7 @@
       <c r="E21" s="22" t="n">
         <v>0.508278277538081</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="39"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -3123,7 +3808,7 @@
       <c r="E22" s="22" t="n">
         <v>0.58401257197061</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="39"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -3145,7 +3830,7 @@
       <c r="E23" s="22" t="n">
         <v>0.35323907721766</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -3167,7 +3852,7 @@
       <c r="E24" s="22" t="n">
         <v>0.0797</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="39"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -3189,7 +3874,7 @@
       <c r="E25" s="22" t="n">
         <v>0.0805</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="39"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -3211,7 +3896,7 @@
       <c r="E26" s="22" t="n">
         <v>0.0813</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="39"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -3233,7 +3918,7 @@
       <c r="E27" s="22" t="n">
         <v>0.0822</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="39"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -3255,7 +3940,7 @@
       <c r="E28" s="22" t="n">
         <v>0.0831</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="39"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
@@ -3277,7 +3962,7 @@
       <c r="E29" s="22" t="n">
         <v>0.0839</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="39"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
@@ -3299,7 +3984,7 @@
       <c r="E30" s="22" t="n">
         <v>0.0848</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="39"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
@@ -3321,7 +4006,7 @@
       <c r="E31" s="22" t="n">
         <v>0.0857</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="39"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
@@ -3343,7 +4028,7 @@
       <c r="E32" s="22" t="n">
         <v>0.0864</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="39"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
@@ -3365,7 +4050,7 @@
       <c r="E33" s="22" t="n">
         <v>0.0873</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
@@ -3387,7 +4072,7 @@
       <c r="E34" s="22" t="n">
         <v>0.0883</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="39"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
@@ -3409,7 +4094,7 @@
       <c r="E35" s="22" t="n">
         <v>0.0891</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="39"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
@@ -3431,7 +4116,7 @@
       <c r="E36" s="22" t="n">
         <v>0.09</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="39"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="31" t="s">
@@ -3461,15 +4146,15 @@
       <c r="E37" s="22" t="n">
         <v>0.0907</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="39"/>
       <c r="H37" s="34" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
@@ -3485,7 +4170,7 @@
       <c r="E38" s="22" t="n">
         <v>0.0917</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="39"/>
       <c r="H38" s="50" t="s">
         <v>40</v>
       </c>
@@ -3509,7 +4194,7 @@
       <c r="E39" s="22" t="n">
         <v>0.0925</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="39"/>
       <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,7 +4211,7 @@
       <c r="E40" s="22" t="n">
         <v>0.0932</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="39"/>
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,7 +4228,7 @@
       <c r="E41" s="22" t="n">
         <v>0.0934</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="39"/>
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,7 +4245,7 @@
       <c r="E42" s="22" t="n">
         <v>0.0926</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="39"/>
       <c r="I42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,7 +4262,7 @@
       <c r="E43" s="22" t="n">
         <v>0.0922</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="39"/>
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,7 +4279,7 @@
       <c r="E44" s="22" t="n">
         <v>0.0917</v>
       </c>
-      <c r="F44" s="42"/>
+      <c r="F44" s="39"/>
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,7 +4296,7 @@
       <c r="E45" s="22" t="n">
         <v>0.091</v>
       </c>
-      <c r="F45" s="42"/>
+      <c r="F45" s="39"/>
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,7 +4313,7 @@
       <c r="E46" s="22" t="n">
         <v>0.0899</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="39"/>
       <c r="I46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,7 +4330,7 @@
       <c r="E47" s="22" t="n">
         <v>0.0864</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="39"/>
       <c r="I47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,7 +4347,7 @@
       <c r="E48" s="22" t="n">
         <v>0.0809</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="39"/>
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,7 +4364,7 @@
       <c r="E49" s="22" t="n">
         <v>0.0809</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="39"/>
       <c r="I49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,7 +4381,7 @@
       <c r="E50" s="22" t="n">
         <v>0.0795</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="39"/>
       <c r="I50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,7 +4398,7 @@
       <c r="E51" s="22" t="n">
         <v>0.0788</v>
       </c>
-      <c r="F51" s="42"/>
+      <c r="F51" s="39"/>
       <c r="I51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,7 +4415,7 @@
       <c r="E52" s="22" t="n">
         <v>0.0782</v>
       </c>
-      <c r="F52" s="42"/>
+      <c r="F52" s="39"/>
       <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,7 +4432,7 @@
       <c r="E53" s="22" t="n">
         <v>0.0784</v>
       </c>
-      <c r="F53" s="42"/>
+      <c r="F53" s="39"/>
       <c r="I53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,7 +4449,7 @@
       <c r="E54" s="22" t="n">
         <v>0.079</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="39"/>
       <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,7 +4466,7 @@
       <c r="E55" s="22" t="n">
         <v>0.0796</v>
       </c>
-      <c r="F55" s="42"/>
+      <c r="F55" s="39"/>
       <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,7 +4483,7 @@
       <c r="E56" s="22" t="n">
         <v>0.0806</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="39"/>
       <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,7 +4500,7 @@
       <c r="E57" s="22" t="n">
         <v>0.0815</v>
       </c>
-      <c r="F57" s="42"/>
+      <c r="F57" s="39"/>
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,7 +4517,7 @@
       <c r="E58" s="22" t="n">
         <v>0.0829</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="39"/>
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,7 +4534,7 @@
       <c r="E59" s="22" t="n">
         <v>0.0848</v>
       </c>
-      <c r="F59" s="42"/>
+      <c r="F59" s="39"/>
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,8 +4551,8 @@
       <c r="E60" s="22" t="n">
         <v>0.0862</v>
       </c>
-      <c r="F60" s="42"/>
-      <c r="I60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="I60" s="36"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
@@ -3883,7 +4568,7 @@
       <c r="E61" s="22" t="n">
         <v>0.0884</v>
       </c>
-      <c r="F61" s="42"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
@@ -3899,7 +4584,7 @@
       <c r="E62" s="22" t="n">
         <v>0.091</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
@@ -3915,7 +4600,7 @@
       <c r="E63" s="22" t="n">
         <v>0.094</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0"/>
@@ -3931,7 +4616,7 @@
       <c r="E64" s="22" t="n">
         <v>0.0984</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
@@ -3947,7 +4632,7 @@
       <c r="E65" s="22" t="n">
         <v>0.1036</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
@@ -3963,7 +4648,7 @@
       <c r="E66" s="22" t="n">
         <v>0.1074</v>
       </c>
-      <c r="F66" s="42"/>
+      <c r="F66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
@@ -3979,7 +4664,7 @@
       <c r="E67" s="22" t="n">
         <v>0.1124</v>
       </c>
-      <c r="F67" s="42"/>
+      <c r="F67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
@@ -3995,7 +4680,7 @@
       <c r="E68" s="22" t="n">
         <v>0.1182</v>
       </c>
-      <c r="F68" s="42"/>
+      <c r="F68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
@@ -4011,7 +4696,7 @@
       <c r="E69" s="22" t="n">
         <v>0.00399420950824472</v>
       </c>
-      <c r="F69" s="42"/>
+      <c r="F69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
@@ -4027,7 +4712,7 @@
       <c r="E70" s="22" t="n">
         <v>-0.0766547520010971</v>
       </c>
-      <c r="F70" s="42"/>
+      <c r="F70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
@@ -4043,7 +4728,7 @@
       <c r="E71" s="22" t="n">
         <v>-0.139839025117737</v>
       </c>
-      <c r="F71" s="42"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
@@ -4059,7 +4744,7 @@
       <c r="E72" s="22" t="n">
         <v>-0.19776017228924</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
@@ -4075,7 +4760,7 @@
       <c r="E73" s="22" t="n">
         <v>-0.25213071589199</v>
       </c>
-      <c r="F73" s="42"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
@@ -4091,7 +4776,7 @@
       <c r="E74" s="22" t="n">
         <v>-0.301331794827691</v>
       </c>
-      <c r="F74" s="42"/>
+      <c r="F74" s="39"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
@@ -4107,7 +4792,7 @@
       <c r="E75" s="22" t="n">
         <v>-0.342228367003367</v>
       </c>
-      <c r="F75" s="42"/>
+      <c r="F75" s="39"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
@@ -4123,7 +4808,7 @@
       <c r="E76" s="22" t="n">
         <v>-0.362492635790565</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="39"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
@@ -4139,7 +4824,7 @@
       <c r="E77" s="22" t="n">
         <v>-0.363836001121142</v>
       </c>
-      <c r="F77" s="42"/>
+      <c r="F77" s="39"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
@@ -4155,7 +4840,7 @@
       <c r="E78" s="22" t="n">
         <v>-0.351458177432086</v>
       </c>
-      <c r="F78" s="42"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
@@ -4171,7 +4856,7 @@
       <c r="E79" s="22" t="n">
         <v>-0.334590347066889</v>
       </c>
-      <c r="F79" s="42"/>
+      <c r="F79" s="39"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
@@ -4187,7 +4872,7 @@
       <c r="E80" s="22" t="n">
         <v>-0.328059110195874</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="39"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
@@ -4203,10 +4888,10 @@
       <c r="E81" s="22" t="n">
         <v>-0.360485011544815</v>
       </c>
-      <c r="F81" s="42"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="40"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="24" t="n">
         <v>160</v>
       </c>
@@ -4219,10 +4904,10 @@
       <c r="E82" s="24" t="n">
         <v>-0.446132610503623</v>
       </c>
-      <c r="F82" s="42"/>
+      <c r="F82" s="39"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="40"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="24" t="n">
         <v>170</v>
       </c>
@@ -4235,10 +4920,10 @@
       <c r="E83" s="24" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F83" s="42"/>
+      <c r="F83" s="39"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="40"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="25" t="n">
         <v>180</v>
       </c>
@@ -4251,7 +4936,7 @@
       <c r="E84" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F84" s="42"/>
+      <c r="F84" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4277,7 +4962,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="J38:M38 G4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="J37:M37 G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4415,7 +5100,7 @@
       <c r="E7" s="22" t="n">
         <v>0.4</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="39"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -4437,7 +5122,7 @@
       <c r="E8" s="22" t="n">
         <v>0.00383471264151277</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="39"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
@@ -4459,7 +5144,7 @@
       <c r="E9" s="22" t="n">
         <v>0.112580238406425</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="39"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -4481,7 +5166,7 @@
       <c r="E10" s="22" t="n">
         <v>0.182713940490899</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="39"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -4503,7 +5188,7 @@
       <c r="E11" s="22" t="n">
         <v>0.248604400854776</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="39"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -4525,7 +5210,7 @@
       <c r="E12" s="22" t="n">
         <v>0.316403716759759</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="39"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -4547,7 +5232,7 @@
       <c r="E13" s="22" t="n">
         <v>0.383220439132267</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="39"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -4569,7 +5254,7 @@
       <c r="E14" s="22" t="n">
         <v>0.442922943251197</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="39"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -4591,7 +5276,7 @@
       <c r="E15" s="22" t="n">
         <v>0.488646756978654</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="39"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -4613,7 +5298,7 @@
       <c r="E16" s="22" t="n">
         <v>0.510756136347133</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -4635,7 +5320,7 @@
       <c r="E17" s="22" t="n">
         <v>0.513447053093025</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -4657,7 +5342,7 @@
       <c r="E18" s="22" t="n">
         <v>0.501520753151653</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="39"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
@@ -4679,7 +5364,7 @@
       <c r="E19" s="22" t="n">
         <v>0.483766565006897</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="39"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
@@ -4701,7 +5386,7 @@
       <c r="E20" s="22" t="n">
         <v>0.474357313358231</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="39"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
@@ -4723,7 +5408,7 @@
       <c r="E21" s="22" t="n">
         <v>0.500412906467265</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="39"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -4745,7 +5430,7 @@
       <c r="E22" s="22" t="n">
         <v>0.56735895612295</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="39"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -4767,7 +5452,7 @@
       <c r="E23" s="22" t="n">
         <v>0.352666881899803</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -4789,7 +5474,7 @@
       <c r="E24" s="22" t="n">
         <v>0.0755</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="39"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -4811,7 +5496,7 @@
       <c r="E25" s="22" t="n">
         <v>0.0765</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="39"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -4833,7 +5518,7 @@
       <c r="E26" s="22" t="n">
         <v>0.0775</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="39"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -4855,7 +5540,7 @@
       <c r="E27" s="22" t="n">
         <v>0.0785</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="39"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -4877,7 +5562,7 @@
       <c r="E28" s="22" t="n">
         <v>0.0794</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="39"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
@@ -4899,7 +5584,7 @@
       <c r="E29" s="22" t="n">
         <v>0.0804</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="39"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
@@ -4921,7 +5606,7 @@
       <c r="E30" s="22" t="n">
         <v>0.0814</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="39"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
@@ -4943,7 +5628,7 @@
       <c r="E31" s="22" t="n">
         <v>0.0824</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="39"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
@@ -4965,7 +5650,7 @@
       <c r="E32" s="22" t="n">
         <v>0.0833</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="39"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
@@ -4987,7 +5672,7 @@
       <c r="E33" s="22" t="n">
         <v>0.0841</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
@@ -5009,7 +5694,7 @@
       <c r="E34" s="22" t="n">
         <v>0.085</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="39"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
@@ -5031,7 +5716,7 @@
       <c r="E35" s="22" t="n">
         <v>0.086</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="39"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
@@ -5053,7 +5738,7 @@
       <c r="E36" s="22" t="n">
         <v>0.0869</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="39"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="31" t="s">
@@ -5083,15 +5768,15 @@
       <c r="E37" s="22" t="n">
         <v>0.0877</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="39"/>
       <c r="H37" s="34" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
@@ -5107,7 +5792,7 @@
       <c r="E38" s="22" t="n">
         <v>0.0885</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="39"/>
       <c r="H38" s="50" t="s">
         <v>40</v>
       </c>
@@ -5131,7 +5816,7 @@
       <c r="E39" s="22" t="n">
         <v>0.089</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="39"/>
       <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5148,7 +5833,7 @@
       <c r="E40" s="22" t="n">
         <v>0.0899</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="39"/>
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,7 +5850,7 @@
       <c r="E41" s="22" t="n">
         <v>0.0908</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="39"/>
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,7 +5867,7 @@
       <c r="E42" s="22" t="n">
         <v>0.0913</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="39"/>
       <c r="I42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5199,7 +5884,7 @@
       <c r="E43" s="22" t="n">
         <v>0.0921</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="39"/>
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +5901,7 @@
       <c r="E44" s="22" t="n">
         <v>0.0926</v>
       </c>
-      <c r="F44" s="42"/>
+      <c r="F44" s="39"/>
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,7 +5918,7 @@
       <c r="E45" s="22" t="n">
         <v>0.0929</v>
       </c>
-      <c r="F45" s="42"/>
+      <c r="F45" s="39"/>
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5250,7 +5935,7 @@
       <c r="E46" s="22" t="n">
         <v>0.0925</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="39"/>
       <c r="I46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,7 +5952,7 @@
       <c r="E47" s="22" t="n">
         <v>0.089</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="39"/>
       <c r="I47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5284,7 +5969,7 @@
       <c r="E48" s="22" t="n">
         <v>0.0797</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="39"/>
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,7 +5986,7 @@
       <c r="E49" s="22" t="n">
         <v>0.0741</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="39"/>
       <c r="I49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5318,7 +6003,7 @@
       <c r="E50" s="22" t="n">
         <v>0.0731</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="39"/>
       <c r="I50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5335,7 +6020,7 @@
       <c r="E51" s="22" t="n">
         <v>0.074</v>
       </c>
-      <c r="F51" s="42"/>
+      <c r="F51" s="39"/>
       <c r="I51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,7 +6037,7 @@
       <c r="E52" s="22" t="n">
         <v>0.0759</v>
       </c>
-      <c r="F52" s="42"/>
+      <c r="F52" s="39"/>
       <c r="I52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5369,7 +6054,7 @@
       <c r="E53" s="22" t="n">
         <v>0.0781</v>
       </c>
-      <c r="F53" s="42"/>
+      <c r="F53" s="39"/>
       <c r="I53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5386,7 +6071,7 @@
       <c r="E54" s="22" t="n">
         <v>0.0809</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="39"/>
       <c r="I54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,7 +6088,7 @@
       <c r="E55" s="22" t="n">
         <v>0.0834</v>
       </c>
-      <c r="F55" s="42"/>
+      <c r="F55" s="39"/>
       <c r="I55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5420,7 +6105,7 @@
       <c r="E56" s="22" t="n">
         <v>0.0858</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="39"/>
       <c r="I56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,7 +6122,7 @@
       <c r="E57" s="22" t="n">
         <v>0.0883</v>
       </c>
-      <c r="F57" s="42"/>
+      <c r="F57" s="39"/>
       <c r="I57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5454,7 +6139,7 @@
       <c r="E58" s="22" t="n">
         <v>0.0911</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="39"/>
       <c r="I58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5471,7 +6156,7 @@
       <c r="E59" s="22" t="n">
         <v>0.0937</v>
       </c>
-      <c r="F59" s="42"/>
+      <c r="F59" s="39"/>
       <c r="I59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,8 +6173,8 @@
       <c r="E60" s="22" t="n">
         <v>0.0966</v>
       </c>
-      <c r="F60" s="42"/>
-      <c r="I60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="I60" s="36"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
@@ -5505,7 +6190,7 @@
       <c r="E61" s="22" t="n">
         <v>0.0992</v>
       </c>
-      <c r="F61" s="42"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
@@ -5521,7 +6206,7 @@
       <c r="E62" s="22" t="n">
         <v>0.1025</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
@@ -5537,7 +6222,7 @@
       <c r="E63" s="22" t="n">
         <v>0.1062</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0"/>
@@ -5553,7 +6238,7 @@
       <c r="E64" s="22" t="n">
         <v>0.1094</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
@@ -5569,7 +6254,7 @@
       <c r="E65" s="22" t="n">
         <v>0.1125</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
@@ -5585,7 +6270,7 @@
       <c r="E66" s="22" t="n">
         <v>0.1169</v>
       </c>
-      <c r="F66" s="42"/>
+      <c r="F66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
@@ -5601,7 +6286,7 @@
       <c r="E67" s="22" t="n">
         <v>0.1209</v>
       </c>
-      <c r="F67" s="42"/>
+      <c r="F67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
@@ -5617,7 +6302,7 @@
       <c r="E68" s="22" t="n">
         <v>0.1264</v>
       </c>
-      <c r="F68" s="42"/>
+      <c r="F68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
@@ -5633,7 +6318,7 @@
       <c r="E69" s="22" t="n">
         <v>0.0111025338500225</v>
       </c>
-      <c r="F69" s="42"/>
+      <c r="F69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
@@ -5649,7 +6334,7 @@
       <c r="E70" s="22" t="n">
         <v>-0.0729965658074385</v>
       </c>
-      <c r="F70" s="42"/>
+      <c r="F70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
@@ -5665,7 +6350,7 @@
       <c r="E71" s="22" t="n">
         <v>-0.139628662019746</v>
       </c>
-      <c r="F71" s="42"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
@@ -5681,7 +6366,7 @@
       <c r="E72" s="22" t="n">
         <v>-0.20044356789022</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
@@ -5697,7 +6382,7 @@
       <c r="E73" s="22" t="n">
         <v>-0.257059976198636</v>
       </c>
-      <c r="F73" s="42"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
@@ -5713,7 +6398,7 @@
       <c r="E74" s="22" t="n">
         <v>-0.307933009092232</v>
       </c>
-      <c r="F74" s="42"/>
+      <c r="F74" s="39"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
@@ -5729,7 +6414,7 @@
       <c r="E75" s="22" t="n">
         <v>-0.350103243021346</v>
       </c>
-      <c r="F75" s="42"/>
+      <c r="F75" s="39"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
@@ -5745,7 +6430,7 @@
       <c r="E76" s="22" t="n">
         <v>-0.372212622389826</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="39"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
@@ -5761,7 +6446,7 @@
       <c r="E77" s="22" t="n">
         <v>-0.374903539135718</v>
       </c>
-      <c r="F77" s="42"/>
+      <c r="F77" s="39"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
@@ -5777,7 +6462,7 @@
       <c r="E78" s="22" t="n">
         <v>-0.362977239194346</v>
       </c>
-      <c r="F78" s="42"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
@@ -5793,7 +6478,7 @@
       <c r="E79" s="22" t="n">
         <v>-0.34522305104959</v>
       </c>
-      <c r="F79" s="42"/>
+      <c r="F79" s="39"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
@@ -5809,7 +6494,7 @@
       <c r="E80" s="22" t="n">
         <v>-0.335813799400924</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="39"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
@@ -5825,10 +6510,10 @@
       <c r="E81" s="22" t="n">
         <v>-0.361869392509958</v>
       </c>
-      <c r="F81" s="42"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="40"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="24" t="n">
         <v>160</v>
       </c>
@@ -5841,10 +6526,10 @@
       <c r="E82" s="24" t="n">
         <v>-0.437316419832301</v>
       </c>
-      <c r="F82" s="42"/>
+      <c r="F82" s="39"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="40"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="24" t="n">
         <v>170</v>
       </c>
@@ -5857,10 +6542,10 @@
       <c r="E83" s="24" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F83" s="42"/>
+      <c r="F83" s="39"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="40"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="25" t="n">
         <v>180</v>
       </c>
@@ -5873,7 +6558,7 @@
       <c r="E84" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F84" s="42"/>
+      <c r="F84" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5899,7 +6584,7 @@
   <dimension ref="B1:H103"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="J38:M38 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="J37:M37 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7420,10 +8105,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M81"/>
+  <dimension ref="B1:M83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="1" sqref="J38:M38 A30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J38" activeCellId="1" sqref="J37:M37 J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7665,7 +8350,7 @@
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="20" t="n">
         <v>-120</v>
       </c>
@@ -8294,10 +8979,18 @@
         <v>39</v>
       </c>
       <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
+      <c r="J37" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="K37" s="21" t="n">
+        <v>1.3445</v>
+      </c>
+      <c r="L37" s="21" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="M37" s="22" t="n">
+        <v>0.071</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="20" t="n">
@@ -8316,14 +9009,22 @@
         <f aca="false">C38/D38</f>
         <v>93.6724137931035</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="38"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" s="21" t="n">
+        <v>0.7102</v>
+      </c>
+      <c r="L38" s="21" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="M38" s="22" t="n">
+        <v>0.0882</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="20" t="n">
@@ -8361,7 +9062,7 @@
         <v>92.5470987189148</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="20" t="n">
         <v>9</v>
       </c>
@@ -9097,6 +9798,18 @@
       <c r="F81" s="27" t="n">
         <f aca="false">C81/D81</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="15" t="n">
+        <f aca="false">MAX(C6:C81)</f>
+        <v>1.6548</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="15" t="n">
+        <f aca="false">0.8*C82</f>
+        <v>1.32384</v>
       </c>
     </row>
   </sheetData>
@@ -9120,10 +9833,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38:M38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9375,7 +10088,7 @@
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="20" t="n">
         <v>-120</v>
@@ -10030,10 +10743,18 @@
         <v>39</v>
       </c>
       <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
+      <c r="J37" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="K37" s="21" t="n">
+        <v>1.2551</v>
+      </c>
+      <c r="L37" s="21" t="n">
+        <v>0.02562</v>
+      </c>
+      <c r="M37" s="22" t="n">
+        <v>0.0546</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
@@ -10053,10 +10774,10 @@
         <f aca="false">C38/D38</f>
         <v>97.3080397470641</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="37"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="20" t="n">
         <v>5</v>
       </c>
@@ -10508,7 +11229,7 @@
         <f aca="false">C60/D60</f>
         <v>21.5138261851016</v>
       </c>
-      <c r="I60" s="39"/>
+      <c r="I60" s="36"/>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
@@ -10910,7 +11631,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="40"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="24" t="n">
         <v>160</v>
       </c>
@@ -10929,7 +11650,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="40"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="24" t="n">
         <v>170</v>
       </c>
@@ -10948,7 +11669,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="40"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="25" t="n">
         <v>180</v>
       </c>
@@ -10964,6 +11685,24 @@
       <c r="F84" s="27" t="n">
         <f aca="false">C84/D84</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="15" t="n">
+        <f aca="false">MAX(C6:C84)</f>
+        <v>1.5639</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="15" t="n">
+        <f aca="false">C85*0.8</f>
+        <v>1.25112</v>
       </c>
     </row>
   </sheetData>
@@ -10990,7 +11729,7 @@
   <dimension ref="B1:M84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F84" activeCellId="1" sqref="J38:M38 F84"/>
+      <selection pane="topLeft" activeCell="F84" activeCellId="1" sqref="J37:M37 F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11095,7 +11834,7 @@
       <c r="D6" s="21" t="n">
         <v>0.01</v>
       </c>
-      <c r="E6" s="41" t="n">
+      <c r="E6" s="38" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="27"/>
@@ -11118,10 +11857,10 @@
       <c r="D7" s="21" t="n">
         <v>0.01</v>
       </c>
-      <c r="E7" s="41" t="n">
+      <c r="E7" s="38" t="n">
         <v>0.4</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="39"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -11139,10 +11878,10 @@
       <c r="D8" s="21" t="n">
         <v>0.0844822065390227</v>
       </c>
-      <c r="E8" s="41" t="n">
+      <c r="E8" s="38" t="n">
         <v>0.0528011451591421</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="39"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
@@ -11160,10 +11899,10 @@
       <c r="D9" s="21" t="n">
         <v>0.30580833404554</v>
       </c>
-      <c r="E9" s="41" t="n">
+      <c r="E9" s="38" t="n">
         <v>0.151142735420776</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="39"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -11181,10 +11920,10 @@
       <c r="D10" s="21" t="n">
         <v>0.578359355450686</v>
       </c>
-      <c r="E10" s="41" t="n">
+      <c r="E10" s="38" t="n">
         <v>0.207764617099845</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="39"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -11202,10 +11941,10 @@
       <c r="D11" s="21" t="n">
         <v>0.870250854342166</v>
       </c>
-      <c r="E11" s="41" t="n">
+      <c r="E11" s="38" t="n">
         <v>0.262387247358062</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="39"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -11223,10 +11962,10 @@
       <c r="D12" s="21" t="n">
         <v>1.14749596984715</v>
       </c>
-      <c r="E12" s="41" t="n">
+      <c r="E12" s="38" t="n">
         <v>0.320730977759679</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="39"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -11244,10 +11983,10 @@
       <c r="D13" s="21" t="n">
         <v>1.37806765787945</v>
       </c>
-      <c r="E13" s="41" t="n">
+      <c r="E13" s="38" t="n">
         <v>0.379701830486456</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="39"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -11265,10 +12004,10 @@
       <c r="D14" s="21" t="n">
         <v>1.53571869785237</v>
       </c>
-      <c r="E14" s="41" t="n">
+      <c r="E14" s="38" t="n">
         <v>0.433075285801071</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="39"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -11286,10 +12025,10 @@
       <c r="D15" s="21" t="n">
         <v>1.6031</v>
       </c>
-      <c r="E15" s="41" t="n">
+      <c r="E15" s="38" t="n">
         <v>0.473887643678161</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="39"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -11307,10 +12046,10 @@
       <c r="D16" s="21" t="n">
         <v>1.53571869785237</v>
       </c>
-      <c r="E16" s="41" t="n">
+      <c r="E16" s="38" t="n">
         <v>0.4868443083938</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -11328,10 +12067,10 @@
       <c r="D17" s="21" t="n">
         <v>1.37806765787945</v>
       </c>
-      <c r="E17" s="41" t="n">
+      <c r="E17" s="38" t="n">
         <v>0.482395932780415</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -11349,10 +12088,10 @@
       <c r="D18" s="21" t="n">
         <v>1.14749596984715</v>
       </c>
-      <c r="E18" s="41" t="n">
+      <c r="E18" s="38" t="n">
         <v>0.466621699766557</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="39"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
@@ -11370,10 +12109,10 @@
       <c r="D19" s="21" t="n">
         <v>0.870250854342166</v>
       </c>
-      <c r="E19" s="41" t="n">
+      <c r="E19" s="38" t="n">
         <v>0.449442768599182</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="39"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
@@ -11391,10 +12130,10 @@
       <c r="D20" s="21" t="n">
         <v>0.578359355450686</v>
       </c>
-      <c r="E20" s="41" t="n">
+      <c r="E20" s="38" t="n">
         <v>0.446304104397872</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="39"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
@@ -11412,10 +12151,10 @@
       <c r="D21" s="21" t="n">
         <v>0.30580833404554</v>
       </c>
-      <c r="E21" s="41" t="n">
+      <c r="E21" s="38" t="n">
         <v>0.486858855865253</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="39"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -11433,10 +12172,10 @@
       <c r="D22" s="21" t="n">
         <v>0.112605454545455</v>
       </c>
-      <c r="E22" s="41" t="n">
+      <c r="E22" s="38" t="n">
         <v>0.57725190585425</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="39"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -11454,10 +12193,10 @@
       <c r="D23" s="21" t="n">
         <v>0.0591827272727273</v>
       </c>
-      <c r="E23" s="41" t="n">
+      <c r="E23" s="38" t="n">
         <v>0.373756929399804</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -11475,10 +12214,10 @@
       <c r="D24" s="21" t="n">
         <v>0.00576</v>
       </c>
-      <c r="E24" s="41" t="n">
+      <c r="E24" s="38" t="n">
         <v>0.0797</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="39"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -11496,10 +12235,10 @@
       <c r="D25" s="21" t="n">
         <v>0.00575</v>
       </c>
-      <c r="E25" s="41" t="n">
+      <c r="E25" s="38" t="n">
         <v>0.0808</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="39"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -11517,10 +12256,10 @@
       <c r="D26" s="21" t="n">
         <v>0.00578</v>
       </c>
-      <c r="E26" s="41" t="n">
+      <c r="E26" s="38" t="n">
         <v>0.0819</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="39"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -11538,10 +12277,10 @@
       <c r="D27" s="21" t="n">
         <v>0.00586</v>
       </c>
-      <c r="E27" s="41" t="n">
+      <c r="E27" s="38" t="n">
         <v>0.0829</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="39"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -11559,10 +12298,10 @@
       <c r="D28" s="21" t="n">
         <v>0.00594</v>
       </c>
-      <c r="E28" s="41" t="n">
+      <c r="E28" s="38" t="n">
         <v>0.0838</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="39"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
@@ -11580,10 +12319,10 @@
       <c r="D29" s="21" t="n">
         <v>0.00602</v>
       </c>
-      <c r="E29" s="41" t="n">
+      <c r="E29" s="38" t="n">
         <v>0.0846</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="39"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
@@ -11601,10 +12340,10 @@
       <c r="D30" s="21" t="n">
         <v>0.00605</v>
       </c>
-      <c r="E30" s="41" t="n">
+      <c r="E30" s="38" t="n">
         <v>0.0857</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="39"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
@@ -11622,10 +12361,10 @@
       <c r="D31" s="21" t="n">
         <v>0.00608</v>
       </c>
-      <c r="E31" s="41" t="n">
+      <c r="E31" s="38" t="n">
         <v>0.0868</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="39"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
@@ -11643,10 +12382,10 @@
       <c r="D32" s="21" t="n">
         <v>0.0062</v>
       </c>
-      <c r="E32" s="41" t="n">
+      <c r="E32" s="38" t="n">
         <v>0.0876</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="39"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
@@ -11664,10 +12403,10 @@
       <c r="D33" s="21" t="n">
         <v>0.00631</v>
       </c>
-      <c r="E33" s="41" t="n">
+      <c r="E33" s="38" t="n">
         <v>0.0883</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
@@ -11685,10 +12424,10 @@
       <c r="D34" s="21" t="n">
         <v>0.00635</v>
       </c>
-      <c r="E34" s="41" t="n">
+      <c r="E34" s="38" t="n">
         <v>0.0893</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="39"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
@@ -11706,10 +12445,10 @@
       <c r="D35" s="21" t="n">
         <v>0.00658</v>
       </c>
-      <c r="E35" s="41" t="n">
+      <c r="E35" s="38" t="n">
         <v>0.0898</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="39"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
@@ -11727,10 +12466,10 @@
       <c r="D36" s="21" t="n">
         <v>0.00687</v>
       </c>
-      <c r="E36" s="41" t="n">
+      <c r="E36" s="38" t="n">
         <v>0.0901</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="39"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="31" t="s">
@@ -11756,18 +12495,18 @@
       <c r="D37" s="21" t="n">
         <v>0.00783</v>
       </c>
-      <c r="E37" s="41" t="n">
+      <c r="E37" s="38" t="n">
         <v>0.0887</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="39"/>
       <c r="H37" s="34" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="20" t="n">
@@ -11779,18 +12518,18 @@
       <c r="D38" s="21" t="n">
         <v>0.00909</v>
       </c>
-      <c r="E38" s="41" t="n">
+      <c r="E38" s="38" t="n">
         <v>0.0865</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="H38" s="37" t="s">
+      <c r="F38" s="39"/>
+      <c r="H38" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="37"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
-      <c r="M38" s="38"/>
+      <c r="M38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="20" t="n">
@@ -11802,10 +12541,10 @@
       <c r="D39" s="21" t="n">
         <v>0.01033</v>
       </c>
-      <c r="E39" s="41" t="n">
+      <c r="E39" s="38" t="n">
         <v>0.0842</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="20" t="n">
@@ -11817,10 +12556,10 @@
       <c r="D40" s="21" t="n">
         <v>0.01145</v>
       </c>
-      <c r="E40" s="41" t="n">
+      <c r="E40" s="38" t="n">
         <v>0.0816</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="20" t="n">
@@ -11832,10 +12571,10 @@
       <c r="D41" s="21" t="n">
         <v>0.01257</v>
       </c>
-      <c r="E41" s="41" t="n">
+      <c r="E41" s="38" t="n">
         <v>0.0778</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="20" t="n">
@@ -11847,10 +12586,10 @@
       <c r="D42" s="21" t="n">
         <v>0.01375</v>
       </c>
-      <c r="E42" s="41" t="n">
+      <c r="E42" s="38" t="n">
         <v>0.0749</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="20" t="n">
@@ -11862,10 +12601,10 @@
       <c r="D43" s="21" t="n">
         <v>0.01518</v>
       </c>
-      <c r="E43" s="41" t="n">
+      <c r="E43" s="38" t="n">
         <v>0.0719</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="20" t="n">
@@ -11877,10 +12616,10 @@
       <c r="D44" s="21" t="n">
         <v>0.01682</v>
       </c>
-      <c r="E44" s="41" t="n">
+      <c r="E44" s="38" t="n">
         <v>0.069</v>
       </c>
-      <c r="F44" s="42"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="20" t="n">
@@ -11892,10 +12631,10 @@
       <c r="D45" s="21" t="n">
         <v>0.0187</v>
       </c>
-      <c r="E45" s="41" t="n">
+      <c r="E45" s="38" t="n">
         <v>0.0664</v>
       </c>
-      <c r="F45" s="42"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="20" t="n">
@@ -11907,10 +12646,10 @@
       <c r="D46" s="21" t="n">
         <v>0.02088</v>
       </c>
-      <c r="E46" s="41" t="n">
+      <c r="E46" s="38" t="n">
         <v>0.0637</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="20" t="n">
@@ -11922,10 +12661,10 @@
       <c r="D47" s="21" t="n">
         <v>0.02328</v>
       </c>
-      <c r="E47" s="41" t="n">
+      <c r="E47" s="38" t="n">
         <v>0.0613</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="20" t="n">
@@ -11937,10 +12676,10 @@
       <c r="D48" s="21" t="n">
         <v>0.02593</v>
       </c>
-      <c r="E48" s="41" t="n">
+      <c r="E48" s="38" t="n">
         <v>0.059</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="20" t="n">
@@ -11952,10 +12691,10 @@
       <c r="D49" s="21" t="n">
         <v>0.02882</v>
       </c>
-      <c r="E49" s="41" t="n">
+      <c r="E49" s="38" t="n">
         <v>0.057</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="20" t="n">
@@ -11967,10 +12706,10 @@
       <c r="D50" s="21" t="n">
         <v>0.03182</v>
       </c>
-      <c r="E50" s="41" t="n">
+      <c r="E50" s="38" t="n">
         <v>0.0556</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="20" t="n">
@@ -11982,10 +12721,10 @@
       <c r="D51" s="21" t="n">
         <v>0.03503</v>
       </c>
-      <c r="E51" s="41" t="n">
+      <c r="E51" s="38" t="n">
         <v>0.0543</v>
       </c>
-      <c r="F51" s="42"/>
+      <c r="F51" s="39"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="20" t="n">
@@ -11997,10 +12736,10 @@
       <c r="D52" s="21" t="n">
         <v>0.03862</v>
       </c>
-      <c r="E52" s="41" t="n">
+      <c r="E52" s="38" t="n">
         <v>0.0532</v>
       </c>
-      <c r="F52" s="42"/>
+      <c r="F52" s="39"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="20" t="n">
@@ -12012,10 +12751,10 @@
       <c r="D53" s="21" t="n">
         <v>0.0419</v>
       </c>
-      <c r="E53" s="41" t="n">
+      <c r="E53" s="38" t="n">
         <v>0.0525</v>
       </c>
-      <c r="F53" s="42"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="20" t="n">
@@ -12027,10 +12766,10 @@
       <c r="D54" s="21" t="n">
         <v>0.04576</v>
       </c>
-      <c r="E54" s="41" t="n">
+      <c r="E54" s="38" t="n">
         <v>0.052</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="39"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="20" t="n">
@@ -12042,10 +12781,10 @@
       <c r="D55" s="21" t="n">
         <v>0.05002</v>
       </c>
-      <c r="E55" s="41" t="n">
+      <c r="E55" s="38" t="n">
         <v>0.0516</v>
       </c>
-      <c r="F55" s="42"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="20" t="n">
@@ -12057,10 +12796,10 @@
       <c r="D56" s="21" t="n">
         <v>0.05432</v>
       </c>
-      <c r="E56" s="41" t="n">
+      <c r="E56" s="38" t="n">
         <v>0.0512</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="20" t="n">
@@ -12072,10 +12811,10 @@
       <c r="D57" s="21" t="n">
         <v>0.05835</v>
       </c>
-      <c r="E57" s="41" t="n">
+      <c r="E57" s="38" t="n">
         <v>0.0511</v>
       </c>
-      <c r="F57" s="42"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="20" t="n">
@@ -12087,10 +12826,10 @@
       <c r="D58" s="21" t="n">
         <v>0.06264</v>
       </c>
-      <c r="E58" s="41" t="n">
+      <c r="E58" s="38" t="n">
         <v>0.0504</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="20" t="n">
@@ -12102,10 +12841,10 @@
       <c r="D59" s="21" t="n">
         <v>0.06714</v>
       </c>
-      <c r="E59" s="41" t="n">
+      <c r="E59" s="38" t="n">
         <v>0.0507</v>
       </c>
-      <c r="F59" s="42"/>
+      <c r="F59" s="39"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="20" t="n">
@@ -12117,10 +12856,10 @@
       <c r="D60" s="21" t="n">
         <v>0.07289</v>
       </c>
-      <c r="E60" s="41" t="n">
+      <c r="E60" s="38" t="n">
         <v>0.0512</v>
       </c>
-      <c r="F60" s="42"/>
+      <c r="F60" s="39"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="20" t="n">
@@ -12132,10 +12871,10 @@
       <c r="D61" s="21" t="n">
         <v>0.07789</v>
       </c>
-      <c r="E61" s="41" t="n">
+      <c r="E61" s="38" t="n">
         <v>0.0519</v>
       </c>
-      <c r="F61" s="42"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="20" t="n">
@@ -12147,10 +12886,10 @@
       <c r="D62" s="21" t="n">
         <v>0.08305</v>
       </c>
-      <c r="E62" s="41" t="n">
+      <c r="E62" s="38" t="n">
         <v>0.0528</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="20" t="n">
@@ -12162,10 +12901,10 @@
       <c r="D63" s="21" t="n">
         <v>0.08868</v>
       </c>
-      <c r="E63" s="41" t="n">
+      <c r="E63" s="38" t="n">
         <v>0.0538</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="20" t="n">
@@ -12177,10 +12916,10 @@
       <c r="D64" s="21" t="n">
         <v>0.09428</v>
       </c>
-      <c r="E64" s="41" t="n">
+      <c r="E64" s="38" t="n">
         <v>0.055</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="20" t="n">
@@ -12192,10 +12931,10 @@
       <c r="D65" s="21" t="n">
         <v>0.10111</v>
       </c>
-      <c r="E65" s="41" t="n">
+      <c r="E65" s="38" t="n">
         <v>0.0568</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="20" t="n">
@@ -12207,10 +12946,10 @@
       <c r="D66" s="21" t="n">
         <v>0.1073</v>
       </c>
-      <c r="E66" s="41" t="n">
+      <c r="E66" s="38" t="n">
         <v>0.0584</v>
       </c>
-      <c r="F66" s="42"/>
+      <c r="F66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="20" t="n">
@@ -12222,10 +12961,10 @@
       <c r="D67" s="21" t="n">
         <v>0.11565</v>
       </c>
-      <c r="E67" s="41" t="n">
+      <c r="E67" s="38" t="n">
         <v>0.061</v>
       </c>
-      <c r="F67" s="42"/>
+      <c r="F67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="20" t="n">
@@ -12237,10 +12976,10 @@
       <c r="D68" s="21" t="n">
         <v>0.12329</v>
       </c>
-      <c r="E68" s="41" t="n">
+      <c r="E68" s="38" t="n">
         <v>0.0638</v>
       </c>
-      <c r="F68" s="42"/>
+      <c r="F68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="20" t="n">
@@ -12252,10 +12991,10 @@
       <c r="D69" s="21" t="n">
         <v>0.30580833404554</v>
       </c>
-      <c r="E69" s="41" t="n">
+      <c r="E69" s="38" t="n">
         <v>-0.0331600686827023</v>
       </c>
-      <c r="F69" s="42"/>
+      <c r="F69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="20" t="n">
@@ -12267,10 +13006,10 @@
       <c r="D70" s="21" t="n">
         <v>0.578359355450686</v>
       </c>
-      <c r="E70" s="41" t="n">
+      <c r="E70" s="38" t="n">
         <v>-0.0981250108116062</v>
       </c>
-      <c r="F70" s="42"/>
+      <c r="F70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="20" t="n">
@@ -12282,10 +13021,10 @@
       <c r="D71" s="21" t="n">
         <v>0.870250854342166</v>
       </c>
-      <c r="E71" s="41" t="n">
+      <c r="E71" s="38" t="n">
         <v>-0.149474907592194</v>
       </c>
-      <c r="F71" s="42"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="20" t="n">
@@ -12297,10 +13036,10 @@
       <c r="D72" s="21" t="n">
         <v>1.14749596984715</v>
       </c>
-      <c r="E72" s="41" t="n">
+      <c r="E72" s="38" t="n">
         <v>-0.198382079672819</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="20" t="n">
@@ -12312,10 +13051,10 @@
       <c r="D73" s="21" t="n">
         <v>1.37806765787945</v>
       </c>
-      <c r="E73" s="41" t="n">
+      <c r="E73" s="38" t="n">
         <v>-0.246029692044442</v>
       </c>
-      <c r="F73" s="42"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="20" t="n">
@@ -12327,10 +13066,10 @@
       <c r="D74" s="21" t="n">
         <v>1.53571869785237</v>
       </c>
-      <c r="E74" s="41" t="n">
+      <c r="E74" s="38" t="n">
         <v>-0.290339479760687</v>
       </c>
-      <c r="F74" s="42"/>
+      <c r="F74" s="39"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="20" t="n">
@@ -12342,10 +13081,10 @@
       <c r="D75" s="21" t="n">
         <v>1.6031</v>
       </c>
-      <c r="E75" s="41" t="n">
+      <c r="E75" s="38" t="n">
         <v>-0.327662356321839</v>
       </c>
-      <c r="F75" s="42"/>
+      <c r="F75" s="39"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="20" t="n">
@@ -12357,10 +13096,10 @@
       <c r="D76" s="21" t="n">
         <v>1.53571869785237</v>
       </c>
-      <c r="E76" s="41" t="n">
+      <c r="E76" s="38" t="n">
         <v>-0.340619021037478</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="39"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="20" t="n">
@@ -12372,10 +13111,10 @@
       <c r="D77" s="21" t="n">
         <v>1.37806765787945</v>
       </c>
-      <c r="E77" s="41" t="n">
+      <c r="E77" s="38" t="n">
         <v>-0.336170645424094</v>
       </c>
-      <c r="F77" s="42"/>
+      <c r="F77" s="39"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="20" t="n">
@@ -12387,10 +13126,10 @@
       <c r="D78" s="21" t="n">
         <v>1.14749596984715</v>
       </c>
-      <c r="E78" s="41" t="n">
+      <c r="E78" s="38" t="n">
         <v>-0.320396412410235</v>
       </c>
-      <c r="F78" s="42"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="20" t="n">
@@ -12402,10 +13141,10 @@
       <c r="D79" s="21" t="n">
         <v>0.870250854342166</v>
       </c>
-      <c r="E79" s="41" t="n">
+      <c r="E79" s="38" t="n">
         <v>-0.30321748124286</v>
       </c>
-      <c r="F79" s="42"/>
+      <c r="F79" s="39"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="20" t="n">
@@ -12417,10 +13156,10 @@
       <c r="D80" s="21" t="n">
         <v>0.578359355450686</v>
       </c>
-      <c r="E80" s="41" t="n">
+      <c r="E80" s="38" t="n">
         <v>-0.300078817041551</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="39"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="20" t="n">
@@ -12432,10 +13171,10 @@
       <c r="D81" s="21" t="n">
         <v>0.30580833404554</v>
       </c>
-      <c r="E81" s="41" t="n">
+      <c r="E81" s="38" t="n">
         <v>-0.340633568508931</v>
       </c>
-      <c r="F81" s="42"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="20" t="n">
@@ -12447,10 +13186,10 @@
       <c r="D82" s="21" t="n">
         <v>0.0844822065390227</v>
       </c>
-      <c r="E82" s="41" t="n">
+      <c r="E82" s="38" t="n">
         <v>-0.437374094968385</v>
       </c>
-      <c r="F82" s="42"/>
+      <c r="F82" s="39"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="20" t="n">
@@ -12465,7 +13204,7 @@
       <c r="E83" s="43" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F83" s="42"/>
+      <c r="F83" s="39"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="25" t="n">
@@ -12506,7 +13245,7 @@
   <dimension ref="B1:M83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="J38:M38 F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="J37:M37 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12611,7 +13350,7 @@
       <c r="D6" s="21" t="n">
         <v>0.01</v>
       </c>
-      <c r="E6" s="41" t="n">
+      <c r="E6" s="38" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="27"/>
@@ -12634,10 +13373,10 @@
       <c r="D7" s="21" t="n">
         <v>0.01</v>
       </c>
-      <c r="E7" s="41" t="n">
+      <c r="E7" s="38" t="n">
         <v>0.4</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="39"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -12655,10 +13394,10 @@
       <c r="D8" s="21" t="n">
         <v>0.0962903400343028</v>
       </c>
-      <c r="E8" s="41" t="n">
+      <c r="E8" s="38" t="n">
         <v>-0.000991348657412355</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="39"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
@@ -12676,10 +13415,10 @@
       <c r="D9" s="21" t="n">
         <v>0.322108310466436</v>
       </c>
-      <c r="E9" s="41" t="n">
+      <c r="E9" s="38" t="n">
         <v>0.101893242411469</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="39"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -12697,10 +13436,10 @@
       <c r="D10" s="21" t="n">
         <v>0.600094176140983</v>
       </c>
-      <c r="E10" s="41" t="n">
+      <c r="E10" s="38" t="n">
         <v>0.164397834364708</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="39"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -12718,10 +13457,10 @@
       <c r="D11" s="21" t="n">
         <v>0.897637423898681</v>
       </c>
-      <c r="E11" s="41" t="n">
+      <c r="E11" s="38" t="n">
         <v>0.223974767197356</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="39"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -12739,10 +13478,10 @@
       <c r="D12" s="21" t="n">
         <v>1.17998250430751</v>
       </c>
-      <c r="E12" s="41" t="n">
+      <c r="E12" s="38" t="n">
         <v>0.286672361622943</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="39"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -12760,10 +13499,10 @@
       <c r="D13" s="21" t="n">
         <v>1.41438645167437</v>
       </c>
-      <c r="E13" s="41" t="n">
+      <c r="E13" s="38" t="n">
         <v>0.349524045526816</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="39"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -12781,10 +13520,10 @@
       <c r="D14" s="21" t="n">
         <v>1.57402830394019</v>
       </c>
-      <c r="E14" s="41" t="n">
+      <c r="E14" s="38" t="n">
         <v>0.406327768337667</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="39"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -12802,10 +13541,10 @@
       <c r="D15" s="21" t="n">
         <v>1.6412</v>
       </c>
-      <c r="E15" s="41" t="n">
+      <c r="E15" s="38" t="n">
         <v>0.450106745362563</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="39"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -12823,10 +13562,10 @@
       <c r="D16" s="21" t="n">
         <v>1.57402830394019</v>
       </c>
-      <c r="E16" s="41" t="n">
+      <c r="E16" s="38" t="n">
         <v>0.466153592073029</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -12844,10 +13583,10 @@
       <c r="D17" s="21" t="n">
         <v>1.41438645167437</v>
       </c>
-      <c r="E17" s="41" t="n">
+      <c r="E17" s="38" t="n">
         <v>0.46380151934783</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -12865,10 +13604,10 @@
       <c r="D18" s="21" t="n">
         <v>1.17998250430751</v>
       </c>
-      <c r="E18" s="41" t="n">
+      <c r="E18" s="38" t="n">
         <v>0.448681935793872</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="39"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
@@ -12886,10 +13625,10 @@
       <c r="D19" s="21" t="n">
         <v>0.897637423898681</v>
       </c>
-      <c r="E19" s="41" t="n">
+      <c r="E19" s="38" t="n">
         <v>0.430331294377789</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="39"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
@@ -12907,10 +13646,10 @@
       <c r="D20" s="21" t="n">
         <v>0.600094176140983</v>
       </c>
-      <c r="E20" s="41" t="n">
+      <c r="E20" s="38" t="n">
         <v>0.423732909827818</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="39"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
@@ -12928,10 +13667,10 @@
       <c r="D21" s="21" t="n">
         <v>0.322108310466436</v>
       </c>
-      <c r="E21" s="41" t="n">
+      <c r="E21" s="38" t="n">
         <v>0.457505171779606</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="39"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -12949,10 +13688,10 @@
       <c r="D22" s="21" t="n">
         <v>0.123967272727273</v>
       </c>
-      <c r="E22" s="41" t="n">
+      <c r="E22" s="38" t="n">
         <v>0.544068630555778</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="39"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -12970,10 +13709,10 @@
       <c r="D23" s="21" t="n">
         <v>0.0643536363636364</v>
       </c>
-      <c r="E23" s="41" t="n">
+      <c r="E23" s="38" t="n">
         <v>0.391667972498313</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -12991,10 +13730,10 @@
       <c r="D24" s="21" t="n">
         <v>0.00474</v>
       </c>
-      <c r="E24" s="41" t="n">
+      <c r="E24" s="38" t="n">
         <v>0.042</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="39"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -13012,10 +13751,10 @@
       <c r="D25" s="21" t="n">
         <v>0.00477</v>
       </c>
-      <c r="E25" s="41" t="n">
+      <c r="E25" s="38" t="n">
         <v>0.0427</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="39"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -13033,10 +13772,10 @@
       <c r="D26" s="21" t="n">
         <v>0.00479</v>
       </c>
-      <c r="E26" s="41" t="n">
+      <c r="E26" s="38" t="n">
         <v>0.0434</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="39"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -13054,10 +13793,10 @@
       <c r="D27" s="21" t="n">
         <v>0.00489</v>
       </c>
-      <c r="E27" s="41" t="n">
+      <c r="E27" s="38" t="n">
         <v>0.044</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="39"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -13075,10 +13814,10 @@
       <c r="D28" s="21" t="n">
         <v>0.00495</v>
       </c>
-      <c r="E28" s="41" t="n">
+      <c r="E28" s="38" t="n">
         <v>0.0446</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="39"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
@@ -13096,10 +13835,10 @@
       <c r="D29" s="21" t="n">
         <v>0.00511</v>
       </c>
-      <c r="E29" s="41" t="n">
+      <c r="E29" s="38" t="n">
         <v>0.0451</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="39"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
@@ -13117,10 +13856,10 @@
       <c r="D30" s="21" t="n">
         <v>0.00525</v>
       </c>
-      <c r="E30" s="41" t="n">
+      <c r="E30" s="38" t="n">
         <v>0.0456</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="39"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
@@ -13138,10 +13877,10 @@
       <c r="D31" s="21" t="n">
         <v>0.00566</v>
       </c>
-      <c r="E31" s="41" t="n">
+      <c r="E31" s="38" t="n">
         <v>0.0459</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="39"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
@@ -13159,10 +13898,10 @@
       <c r="D32" s="21" t="n">
         <v>0.00618</v>
       </c>
-      <c r="E32" s="41" t="n">
+      <c r="E32" s="38" t="n">
         <v>0.046</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="39"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
@@ -13180,10 +13919,10 @@
       <c r="D33" s="21" t="n">
         <v>0.00692</v>
       </c>
-      <c r="E33" s="41" t="n">
+      <c r="E33" s="38" t="n">
         <v>0.046</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
@@ -13201,10 +13940,10 @@
       <c r="D34" s="21" t="n">
         <v>0.00775</v>
       </c>
-      <c r="E34" s="41" t="n">
+      <c r="E34" s="38" t="n">
         <v>0.0459</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="39"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
@@ -13222,10 +13961,10 @@
       <c r="D35" s="21" t="n">
         <v>0.00847</v>
       </c>
-      <c r="E35" s="41" t="n">
+      <c r="E35" s="38" t="n">
         <v>0.0459</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="39"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
@@ -13243,10 +13982,10 @@
       <c r="D36" s="21" t="n">
         <v>0.00922</v>
       </c>
-      <c r="E36" s="41" t="n">
+      <c r="E36" s="38" t="n">
         <v>0.0459</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="39"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="31" t="s">
@@ -13272,18 +14011,18 @@
       <c r="D37" s="21" t="n">
         <v>0.0098</v>
       </c>
-      <c r="E37" s="41" t="n">
+      <c r="E37" s="38" t="n">
         <v>0.0459</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="39"/>
       <c r="H37" s="34" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="20" t="n">
@@ -13295,18 +14034,18 @@
       <c r="D38" s="21" t="n">
         <v>0.0103</v>
       </c>
-      <c r="E38" s="41" t="n">
+      <c r="E38" s="38" t="n">
         <v>0.0459</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="H38" s="37" t="s">
+      <c r="F38" s="39"/>
+      <c r="H38" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="37"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
-      <c r="M38" s="38"/>
+      <c r="M38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="20" t="n">
@@ -13318,10 +14057,10 @@
       <c r="D39" s="21" t="n">
         <v>0.01069</v>
       </c>
-      <c r="E39" s="41" t="n">
+      <c r="E39" s="38" t="n">
         <v>0.0461</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="20" t="n">
@@ -13333,10 +14072,10 @@
       <c r="D40" s="21" t="n">
         <v>0.01121</v>
       </c>
-      <c r="E40" s="41" t="n">
+      <c r="E40" s="38" t="n">
         <v>0.046</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="20" t="n">
@@ -13348,10 +14087,10 @@
       <c r="D41" s="21" t="n">
         <v>0.01169</v>
       </c>
-      <c r="E41" s="41" t="n">
+      <c r="E41" s="38" t="n">
         <v>0.046</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="20" t="n">
@@ -13363,10 +14102,10 @@
       <c r="D42" s="21" t="n">
         <v>0.01212</v>
       </c>
-      <c r="E42" s="41" t="n">
+      <c r="E42" s="38" t="n">
         <v>0.046</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="20" t="n">
@@ -13378,10 +14117,10 @@
       <c r="D43" s="21" t="n">
         <v>0.01283</v>
       </c>
-      <c r="E43" s="41" t="n">
+      <c r="E43" s="38" t="n">
         <v>0.0456</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="20" t="n">
@@ -13393,10 +14132,10 @@
       <c r="D44" s="21" t="n">
         <v>0.01328</v>
       </c>
-      <c r="E44" s="41" t="n">
+      <c r="E44" s="38" t="n">
         <v>0.0454</v>
       </c>
-      <c r="F44" s="42"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="20" t="n">
@@ -13408,10 +14147,10 @@
       <c r="D45" s="21" t="n">
         <v>0.01407</v>
       </c>
-      <c r="E45" s="41" t="n">
+      <c r="E45" s="38" t="n">
         <v>0.0446</v>
       </c>
-      <c r="F45" s="42"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="20" t="n">
@@ -13423,10 +14162,10 @@
       <c r="D46" s="21" t="n">
         <v>0.0147</v>
       </c>
-      <c r="E46" s="41" t="n">
+      <c r="E46" s="38" t="n">
         <v>0.044</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="20" t="n">
@@ -13438,10 +14177,10 @@
       <c r="D47" s="21" t="n">
         <v>0.01551</v>
       </c>
-      <c r="E47" s="41" t="n">
+      <c r="E47" s="38" t="n">
         <v>0.0429</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="20" t="n">
@@ -13453,10 +14192,10 @@
       <c r="D48" s="21" t="n">
         <v>0.0166</v>
       </c>
-      <c r="E48" s="41" t="n">
+      <c r="E48" s="38" t="n">
         <v>0.0409</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="20" t="n">
@@ -13468,10 +14207,10 @@
       <c r="D49" s="21" t="n">
         <v>0.01736</v>
       </c>
-      <c r="E49" s="41" t="n">
+      <c r="E49" s="38" t="n">
         <v>0.0379</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="20" t="n">
@@ -13483,10 +14222,10 @@
       <c r="D50" s="21" t="n">
         <v>0.01846</v>
       </c>
-      <c r="E50" s="41" t="n">
+      <c r="E50" s="38" t="n">
         <v>0.0358</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="20" t="n">
@@ -13498,10 +14237,10 @@
       <c r="D51" s="21" t="n">
         <v>0.01995</v>
       </c>
-      <c r="E51" s="41" t="n">
+      <c r="E51" s="38" t="n">
         <v>0.0335</v>
       </c>
-      <c r="F51" s="42"/>
+      <c r="F51" s="39"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="20" t="n">
@@ -13513,10 +14252,10 @@
       <c r="D52" s="21" t="n">
         <v>0.02182</v>
       </c>
-      <c r="E52" s="41" t="n">
+      <c r="E52" s="38" t="n">
         <v>0.0312</v>
       </c>
-      <c r="F52" s="42"/>
+      <c r="F52" s="39"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="20" t="n">
@@ -13528,10 +14267,10 @@
       <c r="D53" s="21" t="n">
         <v>0.02413</v>
       </c>
-      <c r="E53" s="41" t="n">
+      <c r="E53" s="38" t="n">
         <v>0.029</v>
       </c>
-      <c r="F53" s="42"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="20" t="n">
@@ -13543,10 +14282,10 @@
       <c r="D54" s="21" t="n">
         <v>0.02696</v>
       </c>
-      <c r="E54" s="41" t="n">
+      <c r="E54" s="38" t="n">
         <v>0.0269</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="39"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="20" t="n">
@@ -13558,10 +14297,10 @@
       <c r="D55" s="21" t="n">
         <v>0.03054</v>
       </c>
-      <c r="E55" s="41" t="n">
+      <c r="E55" s="38" t="n">
         <v>0.0249</v>
       </c>
-      <c r="F55" s="42"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="20" t="n">
@@ -13573,10 +14312,10 @@
       <c r="D56" s="21" t="n">
         <v>0.03531</v>
       </c>
-      <c r="E56" s="41" t="n">
+      <c r="E56" s="38" t="n">
         <v>0.023</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="20" t="n">
@@ -13588,10 +14327,10 @@
       <c r="D57" s="21" t="n">
         <v>0.04342</v>
       </c>
-      <c r="E57" s="41" t="n">
+      <c r="E57" s="38" t="n">
         <v>0.0222</v>
       </c>
-      <c r="F57" s="42"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="20" t="n">
@@ -13603,10 +14342,10 @@
       <c r="D58" s="21" t="n">
         <v>0.04784</v>
       </c>
-      <c r="E58" s="41" t="n">
+      <c r="E58" s="38" t="n">
         <v>0.0225</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="20" t="n">
@@ -13618,10 +14357,10 @@
       <c r="D59" s="21" t="n">
         <v>0.05315</v>
       </c>
-      <c r="E59" s="41" t="n">
+      <c r="E59" s="38" t="n">
         <v>0.0233</v>
       </c>
-      <c r="F59" s="42"/>
+      <c r="F59" s="39"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="20" t="n">
@@ -13633,10 +14372,10 @@
       <c r="D60" s="21" t="n">
         <v>0.05953</v>
       </c>
-      <c r="E60" s="41" t="n">
+      <c r="E60" s="38" t="n">
         <v>0.0249</v>
       </c>
-      <c r="F60" s="42"/>
+      <c r="F60" s="39"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="20" t="n">
@@ -13648,10 +14387,10 @@
       <c r="D61" s="21" t="n">
         <v>0.06652</v>
       </c>
-      <c r="E61" s="41" t="n">
+      <c r="E61" s="38" t="n">
         <v>0.027</v>
       </c>
-      <c r="F61" s="42"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="20" t="n">
@@ -13663,10 +14402,10 @@
       <c r="D62" s="21" t="n">
         <v>0.0746</v>
       </c>
-      <c r="E62" s="41" t="n">
+      <c r="E62" s="38" t="n">
         <v>0.0298</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="20" t="n">
@@ -13678,10 +14417,10 @@
       <c r="D63" s="21" t="n">
         <v>0.08378</v>
       </c>
-      <c r="E63" s="41" t="n">
+      <c r="E63" s="38" t="n">
         <v>0.0336</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="20" t="n">
@@ -13693,10 +14432,10 @@
       <c r="D64" s="21" t="n">
         <v>0.09421</v>
       </c>
-      <c r="E64" s="41" t="n">
+      <c r="E64" s="38" t="n">
         <v>0.0384</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="20" t="n">
@@ -13708,10 +14447,10 @@
       <c r="D65" s="21" t="n">
         <v>0.10593</v>
       </c>
-      <c r="E65" s="41" t="n">
+      <c r="E65" s="38" t="n">
         <v>0.0442</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="20" t="n">
@@ -13723,10 +14462,10 @@
       <c r="D66" s="21" t="n">
         <v>0.11977</v>
       </c>
-      <c r="E66" s="41" t="n">
+      <c r="E66" s="38" t="n">
         <v>0.0518</v>
       </c>
-      <c r="F66" s="42"/>
+      <c r="F66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="20" t="n">
@@ -13738,10 +14477,10 @@
       <c r="D67" s="21" t="n">
         <v>0.13589</v>
       </c>
-      <c r="E67" s="41" t="n">
+      <c r="E67" s="38" t="n">
         <v>0.0611</v>
       </c>
-      <c r="F67" s="42"/>
+      <c r="F67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="20" t="n">
@@ -13753,10 +14492,10 @@
       <c r="D68" s="21" t="n">
         <v>0.322108310466436</v>
       </c>
-      <c r="E68" s="41" t="n">
+      <c r="E68" s="38" t="n">
         <v>-0.0444222813214428</v>
       </c>
-      <c r="F68" s="42"/>
+      <c r="F68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="20" t="n">
@@ -13768,10 +14507,10 @@
       <c r="D69" s="21" t="n">
         <v>0.600094176140983</v>
       </c>
-      <c r="E69" s="41" t="n">
+      <c r="E69" s="38" t="n">
         <v>-0.117928827827603</v>
       </c>
-      <c r="F69" s="42"/>
+      <c r="F69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="20" t="n">
@@ -13783,10 +14522,10 @@
       <c r="D70" s="21" t="n">
         <v>0.897637423898681</v>
       </c>
-      <c r="E70" s="41" t="n">
+      <c r="E70" s="38" t="n">
         <v>-0.176070342366523</v>
       </c>
-      <c r="F70" s="42"/>
+      <c r="F70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="20" t="n">
@@ -13798,10 +14537,10 @@
       <c r="D71" s="21" t="n">
         <v>1.17998250430751</v>
       </c>
-      <c r="E71" s="41" t="n">
+      <c r="E71" s="38" t="n">
         <v>-0.230420351196221</v>
       </c>
-      <c r="F71" s="42"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="20" t="n">
@@ -13813,10 +14552,10 @@
       <c r="D72" s="21" t="n">
         <v>1.41438645167437</v>
       </c>
-      <c r="E72" s="41" t="n">
+      <c r="E72" s="38" t="n">
         <v>-0.282423717496065</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="20" t="n">
@@ -13828,10 +14567,10 @@
       <c r="D73" s="21" t="n">
         <v>1.57402830394019</v>
       </c>
-      <c r="E73" s="41" t="n">
+      <c r="E73" s="38" t="n">
         <v>-0.330242783452803</v>
       </c>
-      <c r="F73" s="42"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="20" t="n">
@@ -13843,10 +14582,10 @@
       <c r="D74" s="21" t="n">
         <v>1.6412</v>
       </c>
-      <c r="E74" s="41" t="n">
+      <c r="E74" s="38" t="n">
         <v>-0.370493254637437</v>
       </c>
-      <c r="F74" s="42"/>
+      <c r="F74" s="39"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="20" t="n">
@@ -13858,10 +14597,10 @@
       <c r="D75" s="21" t="n">
         <v>1.57402830394019</v>
       </c>
-      <c r="E75" s="41" t="n">
+      <c r="E75" s="38" t="n">
         <v>-0.386540101347903</v>
       </c>
-      <c r="F75" s="42"/>
+      <c r="F75" s="39"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="20" t="n">
@@ -13873,10 +14612,10 @@
       <c r="D76" s="21" t="n">
         <v>1.41438645167437</v>
       </c>
-      <c r="E76" s="41" t="n">
+      <c r="E76" s="38" t="n">
         <v>-0.384188028622703</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="39"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="20" t="n">
@@ -13888,10 +14627,10 @@
       <c r="D77" s="21" t="n">
         <v>1.17998250430751</v>
       </c>
-      <c r="E77" s="41" t="n">
+      <c r="E77" s="38" t="n">
         <v>-0.369068445068745</v>
       </c>
-      <c r="F77" s="42"/>
+      <c r="F77" s="39"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="20" t="n">
@@ -13903,10 +14642,10 @@
       <c r="D78" s="21" t="n">
         <v>0.897637423898681</v>
       </c>
-      <c r="E78" s="41" t="n">
+      <c r="E78" s="38" t="n">
         <v>-0.350717803652663</v>
       </c>
-      <c r="F78" s="42"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="20" t="n">
@@ -13918,10 +14657,10 @@
       <c r="D79" s="21" t="n">
         <v>0.600094176140983</v>
       </c>
-      <c r="E79" s="41" t="n">
+      <c r="E79" s="38" t="n">
         <v>-0.344119419102692</v>
       </c>
-      <c r="F79" s="42"/>
+      <c r="F79" s="39"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="20" t="n">
@@ -13933,10 +14672,10 @@
       <c r="D80" s="21" t="n">
         <v>0.322108310466436</v>
       </c>
-      <c r="E80" s="41" t="n">
+      <c r="E80" s="38" t="n">
         <v>-0.37789168105448</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="39"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="20" t="n">
@@ -13948,10 +14687,10 @@
       <c r="D81" s="21" t="n">
         <v>0.0962903400343028</v>
       </c>
-      <c r="E81" s="41" t="n">
+      <c r="E81" s="38" t="n">
         <v>-0.465349640314437</v>
       </c>
-      <c r="F81" s="42"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="20" t="n">
@@ -13963,10 +14702,10 @@
       <c r="D82" s="21" t="n">
         <v>0.01</v>
       </c>
-      <c r="E82" s="41" t="n">
+      <c r="E82" s="38" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F82" s="42"/>
+      <c r="F82" s="39"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="47" t="n">
@@ -14007,7 +14746,7 @@
   <dimension ref="B1:M84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F84" activeCellId="1" sqref="J38:M38 F84"/>
+      <selection pane="topLeft" activeCell="F84" activeCellId="1" sqref="J37:M37 F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14112,7 +14851,7 @@
       <c r="D6" s="21" t="n">
         <v>0.01</v>
       </c>
-      <c r="E6" s="41" t="n">
+      <c r="E6" s="38" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="27"/>
@@ -14135,10 +14874,10 @@
       <c r="D7" s="21" t="n">
         <v>0.01</v>
       </c>
-      <c r="E7" s="41" t="n">
+      <c r="E7" s="38" t="n">
         <v>0.4</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="39"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -14156,10 +14895,10 @@
       <c r="D8" s="21" t="n">
         <v>0.0778789340297525</v>
       </c>
-      <c r="E8" s="41" t="n">
+      <c r="E8" s="38" t="n">
         <v>0.00422634457410413</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="39"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
@@ -14177,10 +14916,10 @@
       <c r="D9" s="21" t="n">
         <v>0.303064253544676</v>
       </c>
-      <c r="E9" s="41" t="n">
+      <c r="E9" s="38" t="n">
         <v>0.107139300985499</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="39"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -14198,10 +14937,10 @@
       <c r="D10" s="21" t="n">
         <v>0.580444965063548</v>
       </c>
-      <c r="E10" s="41" t="n">
+      <c r="E10" s="38" t="n">
         <v>0.167004781887617</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="39"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -14219,10 +14958,10 @@
       <c r="D11" s="21" t="n">
         <v>0.877643904451912</v>
       </c>
-      <c r="E11" s="41" t="n">
+      <c r="E11" s="38" t="n">
         <v>0.224044023087225</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="39"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -14240,10 +14979,10 @@
       <c r="D12" s="21" t="n">
         <v>1.16014474139981</v>
       </c>
-      <c r="E12" s="41" t="n">
+      <c r="E12" s="38" t="n">
         <v>0.284678870626693</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="39"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -14261,10 +15000,10 @@
       <c r="D13" s="21" t="n">
         <v>1.39541473935253</v>
       </c>
-      <c r="E13" s="41" t="n">
+      <c r="E13" s="38" t="n">
         <v>0.346018650929796</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="39"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -14282,10 +15021,10 @@
       <c r="D14" s="21" t="n">
         <v>1.55678186014353</v>
       </c>
-      <c r="E14" s="41" t="n">
+      <c r="E14" s="38" t="n">
         <v>0.40183461194949</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="39"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -14303,10 +15042,10 @@
       <c r="D15" s="21" t="n">
         <v>1.6266</v>
       </c>
-      <c r="E15" s="41" t="n">
+      <c r="E15" s="38" t="n">
         <v>0.445054159733777</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="39"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -14324,10 +15063,10 @@
       <c r="D16" s="21" t="n">
         <v>1.55678186014353</v>
       </c>
-      <c r="E16" s="41" t="n">
+      <c r="E16" s="38" t="n">
         <v>0.459265709635521</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -14345,10 +15084,10 @@
       <c r="D17" s="21" t="n">
         <v>1.39541473935253</v>
       </c>
-      <c r="E17" s="41" t="n">
+      <c r="E17" s="38" t="n">
         <v>0.455571514734282</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -14366,10 +15105,10 @@
       <c r="D18" s="21" t="n">
         <v>1.16014474139981</v>
       </c>
-      <c r="E18" s="41" t="n">
+      <c r="E18" s="38" t="n">
         <v>0.440022409119992</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="39"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
@@ -14387,10 +15126,10 @@
       <c r="D19" s="21" t="n">
         <v>0.877643904451912</v>
       </c>
-      <c r="E19" s="41" t="n">
+      <c r="E19" s="38" t="n">
         <v>0.422621601214025</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="39"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
@@ -14408,10 +15147,10 @@
       <c r="D20" s="21" t="n">
         <v>0.580444965063548</v>
       </c>
-      <c r="E20" s="41" t="n">
+      <c r="E20" s="38" t="n">
         <v>0.419034589347109</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="39"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
@@ -14429,10 +15168,10 @@
       <c r="D21" s="21" t="n">
         <v>0.303064253544676</v>
       </c>
-      <c r="E21" s="41" t="n">
+      <c r="E21" s="38" t="n">
         <v>0.459413216930002</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="39"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -14450,10 +15189,10 @@
       <c r="D22" s="21" t="n">
         <v>0.107158181818182</v>
       </c>
-      <c r="E22" s="41" t="n">
+      <c r="E22" s="38" t="n">
         <v>0.556766584053852</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="39"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -14471,10 +15210,10 @@
       <c r="D23" s="21" t="n">
         <v>0.0561490909090909</v>
       </c>
-      <c r="E23" s="41" t="n">
+      <c r="E23" s="38" t="n">
         <v>0.402165597220759</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -14492,10 +15231,10 @@
       <c r="D24" s="21" t="n">
         <v>0.00514</v>
       </c>
-      <c r="E24" s="41" t="n">
+      <c r="E24" s="38" t="n">
         <v>0.0412</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="39"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -14513,10 +15252,10 @@
       <c r="D25" s="21" t="n">
         <v>0.00515</v>
       </c>
-      <c r="E25" s="41" t="n">
+      <c r="E25" s="38" t="n">
         <v>0.0421</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="39"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -14534,10 +15273,10 @@
       <c r="D26" s="21" t="n">
         <v>0.00522</v>
       </c>
-      <c r="E26" s="41" t="n">
+      <c r="E26" s="38" t="n">
         <v>0.043</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="39"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -14555,10 +15294,10 @@
       <c r="D27" s="21" t="n">
         <v>0.00522</v>
       </c>
-      <c r="E27" s="41" t="n">
+      <c r="E27" s="38" t="n">
         <v>0.0439</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="39"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -14576,10 +15315,10 @@
       <c r="D28" s="21" t="n">
         <v>0.00532</v>
       </c>
-      <c r="E28" s="41" t="n">
+      <c r="E28" s="38" t="n">
         <v>0.0447</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="39"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
@@ -14597,10 +15336,10 @@
       <c r="D29" s="21" t="n">
         <v>0.00538</v>
       </c>
-      <c r="E29" s="41" t="n">
+      <c r="E29" s="38" t="n">
         <v>0.0455</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="39"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
@@ -14618,10 +15357,10 @@
       <c r="D30" s="21" t="n">
         <v>0.00547</v>
       </c>
-      <c r="E30" s="41" t="n">
+      <c r="E30" s="38" t="n">
         <v>0.0463</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="39"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
@@ -14639,10 +15378,10 @@
       <c r="D31" s="21" t="n">
         <v>0.00565</v>
       </c>
-      <c r="E31" s="41" t="n">
+      <c r="E31" s="38" t="n">
         <v>0.047</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="39"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
@@ -14660,10 +15399,10 @@
       <c r="D32" s="21" t="n">
         <v>0.00581</v>
       </c>
-      <c r="E32" s="41" t="n">
+      <c r="E32" s="38" t="n">
         <v>0.0477</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="39"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
@@ -14681,10 +15420,10 @@
       <c r="D33" s="21" t="n">
         <v>0.00611</v>
       </c>
-      <c r="E33" s="41" t="n">
+      <c r="E33" s="38" t="n">
         <v>0.0482</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
@@ -14702,10 +15441,10 @@
       <c r="D34" s="21" t="n">
         <v>0.00668</v>
       </c>
-      <c r="E34" s="41" t="n">
+      <c r="E34" s="38" t="n">
         <v>0.0484</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="39"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
@@ -14723,10 +15462,10 @@
       <c r="D35" s="21" t="n">
         <v>0.00735</v>
       </c>
-      <c r="E35" s="41" t="n">
+      <c r="E35" s="38" t="n">
         <v>0.0485</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="39"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
@@ -14744,10 +15483,10 @@
       <c r="D36" s="21" t="n">
         <v>0.00815</v>
       </c>
-      <c r="E36" s="41" t="n">
+      <c r="E36" s="38" t="n">
         <v>0.0484</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="39"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="31" t="s">
@@ -14773,18 +15512,18 @@
       <c r="D37" s="21" t="n">
         <v>0.00898</v>
       </c>
-      <c r="E37" s="41" t="n">
+      <c r="E37" s="38" t="n">
         <v>0.0483</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="39"/>
       <c r="H37" s="34" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="20" t="n">
@@ -14796,18 +15535,18 @@
       <c r="D38" s="21" t="n">
         <v>0.00972</v>
       </c>
-      <c r="E38" s="41" t="n">
+      <c r="E38" s="38" t="n">
         <v>0.0482</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="H38" s="37" t="s">
+      <c r="F38" s="39"/>
+      <c r="H38" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="37"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
-      <c r="M38" s="38"/>
+      <c r="M38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="20" t="n">
@@ -14819,10 +15558,10 @@
       <c r="D39" s="21" t="n">
         <v>0.01044</v>
       </c>
-      <c r="E39" s="41" t="n">
+      <c r="E39" s="38" t="n">
         <v>0.0481</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="20" t="n">
@@ -14834,10 +15573,10 @@
       <c r="D40" s="21" t="n">
         <v>0.01128</v>
       </c>
-      <c r="E40" s="41" t="n">
+      <c r="E40" s="38" t="n">
         <v>0.0477</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="20" t="n">
@@ -14849,10 +15588,10 @@
       <c r="D41" s="21" t="n">
         <v>0.01207</v>
       </c>
-      <c r="E41" s="41" t="n">
+      <c r="E41" s="38" t="n">
         <v>0.0473</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="20" t="n">
@@ -14864,10 +15603,10 @@
       <c r="D42" s="21" t="n">
         <v>0.01268</v>
       </c>
-      <c r="E42" s="41" t="n">
+      <c r="E42" s="38" t="n">
         <v>0.047</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="20" t="n">
@@ -14879,10 +15618,10 @@
       <c r="D43" s="21" t="n">
         <v>0.01337</v>
       </c>
-      <c r="E43" s="41" t="n">
+      <c r="E43" s="38" t="n">
         <v>0.0465</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="20" t="n">
@@ -14894,10 +15633,10 @@
       <c r="D44" s="21" t="n">
         <v>0.01392</v>
       </c>
-      <c r="E44" s="41" t="n">
+      <c r="E44" s="38" t="n">
         <v>0.0461</v>
       </c>
-      <c r="F44" s="42"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="20" t="n">
@@ -14909,10 +15648,10 @@
       <c r="D45" s="21" t="n">
         <v>0.01464</v>
       </c>
-      <c r="E45" s="41" t="n">
+      <c r="E45" s="38" t="n">
         <v>0.0452</v>
       </c>
-      <c r="F45" s="42"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="20" t="n">
@@ -14924,10 +15663,10 @@
       <c r="D46" s="21" t="n">
         <v>0.01553</v>
       </c>
-      <c r="E46" s="41" t="n">
+      <c r="E46" s="38" t="n">
         <v>0.0431</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="20" t="n">
@@ -14939,10 +15678,10 @@
       <c r="D47" s="21" t="n">
         <v>0.01647</v>
       </c>
-      <c r="E47" s="41" t="n">
+      <c r="E47" s="38" t="n">
         <v>0.0415</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="20" t="n">
@@ -14954,10 +15693,10 @@
       <c r="D48" s="21" t="n">
         <v>0.01748</v>
       </c>
-      <c r="E48" s="41" t="n">
+      <c r="E48" s="38" t="n">
         <v>0.0401</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="20" t="n">
@@ -14969,10 +15708,10 @@
       <c r="D49" s="21" t="n">
         <v>0.01885</v>
       </c>
-      <c r="E49" s="41" t="n">
+      <c r="E49" s="38" t="n">
         <v>0.0383</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="20" t="n">
@@ -14984,10 +15723,10 @@
       <c r="D50" s="21" t="n">
         <v>0.02066</v>
       </c>
-      <c r="E50" s="41" t="n">
+      <c r="E50" s="38" t="n">
         <v>0.0364</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="20" t="n">
@@ -14999,10 +15738,10 @@
       <c r="D51" s="21" t="n">
         <v>0.02266</v>
       </c>
-      <c r="E51" s="41" t="n">
+      <c r="E51" s="38" t="n">
         <v>0.0346</v>
       </c>
-      <c r="F51" s="42"/>
+      <c r="F51" s="39"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="20" t="n">
@@ -15014,10 +15753,10 @@
       <c r="D52" s="21" t="n">
         <v>0.02451</v>
       </c>
-      <c r="E52" s="41" t="n">
+      <c r="E52" s="38" t="n">
         <v>0.0332</v>
       </c>
-      <c r="F52" s="42"/>
+      <c r="F52" s="39"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="20" t="n">
@@ -15029,10 +15768,10 @@
       <c r="D53" s="21" t="n">
         <v>0.02681</v>
       </c>
-      <c r="E53" s="41" t="n">
+      <c r="E53" s="38" t="n">
         <v>0.0306</v>
       </c>
-      <c r="F53" s="42"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="20" t="n">
@@ -15044,10 +15783,10 @@
       <c r="D54" s="21" t="n">
         <v>0.02992</v>
       </c>
-      <c r="E54" s="41" t="n">
+      <c r="E54" s="38" t="n">
         <v>0.0291</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="39"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="20" t="n">
@@ -15059,10 +15798,10 @@
       <c r="D55" s="21" t="n">
         <v>0.03315</v>
       </c>
-      <c r="E55" s="41" t="n">
+      <c r="E55" s="38" t="n">
         <v>0.028</v>
       </c>
-      <c r="F55" s="42"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="20" t="n">
@@ -15074,10 +15813,10 @@
       <c r="D56" s="21" t="n">
         <v>0.03666</v>
       </c>
-      <c r="E56" s="41" t="n">
+      <c r="E56" s="38" t="n">
         <v>0.0272</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="20" t="n">
@@ -15089,10 +15828,10 @@
       <c r="D57" s="21" t="n">
         <v>0.04085</v>
       </c>
-      <c r="E57" s="41" t="n">
+      <c r="E57" s="38" t="n">
         <v>0.0268</v>
       </c>
-      <c r="F57" s="42"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="20" t="n">
@@ -15104,10 +15843,10 @@
       <c r="D58" s="21" t="n">
         <v>0.04584</v>
       </c>
-      <c r="E58" s="41" t="n">
+      <c r="E58" s="38" t="n">
         <v>0.0267</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="20" t="n">
@@ -15119,10 +15858,10 @@
       <c r="D59" s="21" t="n">
         <v>0.05038</v>
       </c>
-      <c r="E59" s="41" t="n">
+      <c r="E59" s="38" t="n">
         <v>0.027</v>
       </c>
-      <c r="F59" s="42"/>
+      <c r="F59" s="39"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="20" t="n">
@@ -15134,10 +15873,10 @@
       <c r="D60" s="21" t="n">
         <v>0.05546</v>
       </c>
-      <c r="E60" s="41" t="n">
+      <c r="E60" s="38" t="n">
         <v>0.0277</v>
       </c>
-      <c r="F60" s="42"/>
+      <c r="F60" s="39"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="20" t="n">
@@ -15149,10 +15888,10 @@
       <c r="D61" s="21" t="n">
         <v>0.06122</v>
       </c>
-      <c r="E61" s="41" t="n">
+      <c r="E61" s="38" t="n">
         <v>0.0287</v>
       </c>
-      <c r="F61" s="42"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="20" t="n">
@@ -15164,10 +15903,10 @@
       <c r="D62" s="21" t="n">
         <v>0.06758</v>
       </c>
-      <c r="E62" s="41" t="n">
+      <c r="E62" s="38" t="n">
         <v>0.0302</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="20" t="n">
@@ -15179,10 +15918,10 @@
       <c r="D63" s="21" t="n">
         <v>0.0746</v>
       </c>
-      <c r="E63" s="41" t="n">
+      <c r="E63" s="38" t="n">
         <v>0.0321</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="20" t="n">
@@ -15194,10 +15933,10 @@
       <c r="D64" s="21" t="n">
         <v>0.08239</v>
       </c>
-      <c r="E64" s="41" t="n">
+      <c r="E64" s="38" t="n">
         <v>0.0345</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="20" t="n">
@@ -15209,10 +15948,10 @@
       <c r="D65" s="21" t="n">
         <v>0.09132</v>
       </c>
-      <c r="E65" s="41" t="n">
+      <c r="E65" s="38" t="n">
         <v>0.0377</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="20" t="n">
@@ -15224,10 +15963,10 @@
       <c r="D66" s="21" t="n">
         <v>0.09983</v>
       </c>
-      <c r="E66" s="41" t="n">
+      <c r="E66" s="38" t="n">
         <v>0.041</v>
       </c>
-      <c r="F66" s="42"/>
+      <c r="F66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="20" t="n">
@@ -15239,10 +15978,10 @@
       <c r="D67" s="21" t="n">
         <v>0.10822</v>
       </c>
-      <c r="E67" s="41" t="n">
+      <c r="E67" s="38" t="n">
         <v>0.0447</v>
       </c>
-      <c r="F67" s="42"/>
+      <c r="F67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="20" t="n">
@@ -15254,10 +15993,10 @@
       <c r="D68" s="21" t="n">
         <v>0.11736</v>
       </c>
-      <c r="E68" s="41" t="n">
+      <c r="E68" s="38" t="n">
         <v>0.0489</v>
       </c>
-      <c r="F68" s="42"/>
+      <c r="F68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="20" t="n">
@@ -15269,10 +16008,10 @@
       <c r="D69" s="21" t="n">
         <v>0.303064253544676</v>
       </c>
-      <c r="E69" s="41" t="n">
+      <c r="E69" s="38" t="n">
         <v>-0.0552316007847605</v>
       </c>
-      <c r="F69" s="42"/>
+      <c r="F69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="20" t="n">
@@ -15284,10 +16023,10 @@
       <c r="D70" s="21" t="n">
         <v>0.580444965063548</v>
       </c>
-      <c r="E70" s="41" t="n">
+      <c r="E70" s="38" t="n">
         <v>-0.125120380799135</v>
       </c>
-      <c r="F70" s="42"/>
+      <c r="F70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="20" t="n">
@@ -15299,10 +16038,10 @@
       <c r="D71" s="21" t="n">
         <v>0.877643904451912</v>
       </c>
-      <c r="E71" s="41" t="n">
+      <c r="E71" s="38" t="n">
         <v>-0.179863473798172</v>
       </c>
-      <c r="F71" s="42"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="20" t="n">
@@ -15314,10 +16053,10 @@
       <c r="D72" s="21" t="n">
         <v>1.16014474139981</v>
       </c>
-      <c r="E72" s="41" t="n">
+      <c r="E72" s="38" t="n">
         <v>-0.231579312591711</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="20" t="n">
@@ -15329,10 +16068,10 @@
       <c r="D73" s="21" t="n">
         <v>1.39541473935253</v>
       </c>
-      <c r="E73" s="41" t="n">
+      <c r="E73" s="38" t="n">
         <v>-0.281788677729803</v>
       </c>
-      <c r="F73" s="42"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="20" t="n">
@@ -15344,10 +16083,10 @@
       <c r="D74" s="21" t="n">
         <v>1.55678186014353</v>
       </c>
-      <c r="E74" s="41" t="n">
+      <c r="E74" s="38" t="n">
         <v>-0.328546689795816</v>
       </c>
-      <c r="F74" s="42"/>
+      <c r="F74" s="39"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="20" t="n">
@@ -15359,10 +16098,10 @@
       <c r="D75" s="21" t="n">
         <v>1.6266</v>
       </c>
-      <c r="E75" s="41" t="n">
+      <c r="E75" s="38" t="n">
         <v>-0.368245840266223</v>
       </c>
-      <c r="F75" s="42"/>
+      <c r="F75" s="39"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="20" t="n">
@@ -15374,10 +16113,10 @@
       <c r="D76" s="21" t="n">
         <v>1.55678186014353</v>
       </c>
-      <c r="E76" s="41" t="n">
+      <c r="E76" s="38" t="n">
         <v>-0.382457390167967</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="39"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="20" t="n">
@@ -15389,10 +16128,10 @@
       <c r="D77" s="21" t="n">
         <v>1.39541473935253</v>
       </c>
-      <c r="E77" s="41" t="n">
+      <c r="E77" s="38" t="n">
         <v>-0.378763195266727</v>
       </c>
-      <c r="F77" s="42"/>
+      <c r="F77" s="39"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="20" t="n">
@@ -15404,10 +16143,10 @@
       <c r="D78" s="21" t="n">
         <v>1.16014474139981</v>
       </c>
-      <c r="E78" s="41" t="n">
+      <c r="E78" s="38" t="n">
         <v>-0.363214089652438</v>
       </c>
-      <c r="F78" s="42"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="20" t="n">
@@ -15419,10 +16158,10 @@
       <c r="D79" s="21" t="n">
         <v>0.877643904451912</v>
       </c>
-      <c r="E79" s="41" t="n">
+      <c r="E79" s="38" t="n">
         <v>-0.345813281746471</v>
       </c>
-      <c r="F79" s="42"/>
+      <c r="F79" s="39"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="20" t="n">
@@ -15434,10 +16173,10 @@
       <c r="D80" s="21" t="n">
         <v>0.580444965063548</v>
       </c>
-      <c r="E80" s="41" t="n">
+      <c r="E80" s="38" t="n">
         <v>-0.342226269879555</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="39"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="20" t="n">
@@ -15449,10 +16188,10 @@
       <c r="D81" s="21" t="n">
         <v>0.303064253544676</v>
       </c>
-      <c r="E81" s="41" t="n">
+      <c r="E81" s="38" t="n">
         <v>-0.382604897462448</v>
       </c>
-      <c r="F81" s="42"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="20" t="n">
@@ -15464,10 +16203,10 @@
       <c r="D82" s="21" t="n">
         <v>0.0778789340297525</v>
       </c>
-      <c r="E82" s="41" t="n">
+      <c r="E82" s="38" t="n">
         <v>-0.480573967334489</v>
       </c>
-      <c r="F82" s="42"/>
+      <c r="F82" s="39"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="20" t="n">
@@ -15482,7 +16221,7 @@
       <c r="E83" s="43" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F83" s="42"/>
+      <c r="F83" s="39"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="25" t="n">
@@ -15523,7 +16262,7 @@
   <dimension ref="B1:M84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="J38:M38 F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="J37:M37 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15654,7 +16393,7 @@
       <c r="E7" s="22" t="n">
         <v>0.4</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="39"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -15675,7 +16414,7 @@
       <c r="E8" s="22" t="n">
         <v>0.0732173077296307</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="39"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
@@ -15696,7 +16435,7 @@
       <c r="E9" s="22" t="n">
         <v>0.166722499031433</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="39"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -15717,7 +16456,7 @@
       <c r="E10" s="22" t="n">
         <v>0.225679977744506</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="39"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -15738,7 +16477,7 @@
       <c r="E11" s="22" t="n">
         <v>0.284644032190252</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="39"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -15759,7 +16498,7 @@
       <c r="E12" s="22" t="n">
         <v>0.347320118201601</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="39"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -15780,7 +16519,7 @@
       <c r="E13" s="22" t="n">
         <v>0.4097448183394</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="39"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -15801,7 +16540,7 @@
       <c r="E14" s="22" t="n">
         <v>0.46524022293807</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="39"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -15822,7 +16561,7 @@
       <c r="E15" s="22" t="n">
         <v>0.506677674023769</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="39"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -15843,7 +16582,7 @@
       <c r="E16" s="22" t="n">
         <v>0.519540166964556</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -15864,7 +16603,7 @@
       <c r="E17" s="22" t="n">
         <v>0.513491683567946</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -15885,7 +16624,7 @@
       <c r="E18" s="22" t="n">
         <v>0.494363217574309</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="39"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
@@ -15906,7 +16645,7 @@
       <c r="E19" s="22" t="n">
         <v>0.471695308737513</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="39"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
@@ -15927,7 +16666,7 @@
       <c r="E20" s="22" t="n">
         <v>0.460000153332877</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="39"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
@@ -15948,7 +16687,7 @@
       <c r="E21" s="22" t="n">
         <v>0.486075066960875</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="39"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -15969,7 +16708,7 @@
       <c r="E22" s="22" t="n">
         <v>0.559490705608093</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="39"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -15990,7 +16729,7 @@
       <c r="E23" s="22" t="n">
         <v>0.36022331082926</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -16011,7 +16750,7 @@
       <c r="E24" s="22" t="n">
         <v>0.0831</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="39"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -16032,7 +16771,7 @@
       <c r="E25" s="22" t="n">
         <v>0.0838</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="39"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -16053,7 +16792,7 @@
       <c r="E26" s="22" t="n">
         <v>0.0843</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="39"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -16074,7 +16813,7 @@
       <c r="E27" s="22" t="n">
         <v>0.0847</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="39"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -16095,7 +16834,7 @@
       <c r="E28" s="22" t="n">
         <v>0.0852</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="39"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
@@ -16116,7 +16855,7 @@
       <c r="E29" s="22" t="n">
         <v>0.0856</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="39"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
@@ -16137,7 +16876,7 @@
       <c r="E30" s="22" t="n">
         <v>0.0857</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="39"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
@@ -16158,7 +16897,7 @@
       <c r="E31" s="22" t="n">
         <v>0.0859</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="39"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
@@ -16179,7 +16918,7 @@
       <c r="E32" s="22" t="n">
         <v>0.0857</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="39"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
@@ -16200,7 +16939,7 @@
       <c r="E33" s="22" t="n">
         <v>0.0853</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
@@ -16221,7 +16960,7 @@
       <c r="E34" s="22" t="n">
         <v>0.0845</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="39"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
@@ -16242,7 +16981,7 @@
       <c r="E35" s="22" t="n">
         <v>0.0837</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="39"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
@@ -16263,7 +17002,7 @@
       <c r="E36" s="22" t="n">
         <v>0.0831</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="39"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="31" t="s">
@@ -16292,15 +17031,15 @@
       <c r="E37" s="22" t="n">
         <v>0.0823</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="39"/>
       <c r="H37" s="34" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="20" t="n">
@@ -16315,15 +17054,15 @@
       <c r="E38" s="22" t="n">
         <v>0.0816</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="H38" s="37" t="s">
+      <c r="F38" s="39"/>
+      <c r="H38" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="37"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
-      <c r="M38" s="38"/>
+      <c r="M38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="20" t="n">
@@ -16338,7 +17077,7 @@
       <c r="E39" s="22" t="n">
         <v>0.0812</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="20" t="n">
@@ -16353,7 +17092,7 @@
       <c r="E40" s="22" t="n">
         <v>0.0807</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="20" t="n">
@@ -16368,7 +17107,7 @@
       <c r="E41" s="22" t="n">
         <v>0.0801</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="20" t="n">
@@ -16383,7 +17122,7 @@
       <c r="E42" s="22" t="n">
         <v>0.0796</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="20" t="n">
@@ -16398,7 +17137,7 @@
       <c r="E43" s="22" t="n">
         <v>0.0786</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="20" t="n">
@@ -16413,7 +17152,7 @@
       <c r="E44" s="22" t="n">
         <v>0.0775</v>
       </c>
-      <c r="F44" s="42"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="20" t="n">
@@ -16428,7 +17167,7 @@
       <c r="E45" s="22" t="n">
         <v>0.0763</v>
       </c>
-      <c r="F45" s="42"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="20" t="n">
@@ -16443,7 +17182,7 @@
       <c r="E46" s="22" t="n">
         <v>0.0739</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="20" t="n">
@@ -16458,7 +17197,7 @@
       <c r="E47" s="22" t="n">
         <v>0.0714</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="20" t="n">
@@ -16473,7 +17212,7 @@
       <c r="E48" s="22" t="n">
         <v>0.0668</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="20" t="n">
@@ -16488,7 +17227,7 @@
       <c r="E49" s="22" t="n">
         <v>0.0642</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="20" t="n">
@@ -16503,7 +17242,7 @@
       <c r="E50" s="22" t="n">
         <v>0.0616</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="20" t="n">
@@ -16518,7 +17257,7 @@
       <c r="E51" s="22" t="n">
         <v>0.0589</v>
       </c>
-      <c r="F51" s="42"/>
+      <c r="F51" s="39"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="20" t="n">
@@ -16533,7 +17272,7 @@
       <c r="E52" s="22" t="n">
         <v>0.056</v>
       </c>
-      <c r="F52" s="42"/>
+      <c r="F52" s="39"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="20" t="n">
@@ -16548,7 +17287,7 @@
       <c r="E53" s="22" t="n">
         <v>0.0531</v>
       </c>
-      <c r="F53" s="42"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="20" t="n">
@@ -16563,7 +17302,7 @@
       <c r="E54" s="22" t="n">
         <v>0.0493</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="39"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="20" t="n">
@@ -16578,7 +17317,7 @@
       <c r="E55" s="22" t="n">
         <v>0.0479</v>
       </c>
-      <c r="F55" s="42"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="20" t="n">
@@ -16593,7 +17332,7 @@
       <c r="E56" s="22" t="n">
         <v>0.0468</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="20" t="n">
@@ -16608,7 +17347,7 @@
       <c r="E57" s="22" t="n">
         <v>0.0462</v>
       </c>
-      <c r="F57" s="42"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="20" t="n">
@@ -16623,7 +17362,7 @@
       <c r="E58" s="22" t="n">
         <v>0.0461</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="20" t="n">
@@ -16638,7 +17377,7 @@
       <c r="E59" s="22" t="n">
         <v>0.0465</v>
       </c>
-      <c r="F59" s="42"/>
+      <c r="F59" s="39"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="20" t="n">
@@ -16653,7 +17392,7 @@
       <c r="E60" s="22" t="n">
         <v>0.0476</v>
       </c>
-      <c r="F60" s="42"/>
+      <c r="F60" s="39"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="20" t="n">
@@ -16668,7 +17407,7 @@
       <c r="E61" s="22" t="n">
         <v>0.0493</v>
       </c>
-      <c r="F61" s="42"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="20" t="n">
@@ -16683,7 +17422,7 @@
       <c r="E62" s="22" t="n">
         <v>0.0518</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="20" t="n">
@@ -16698,7 +17437,7 @@
       <c r="E63" s="22" t="n">
         <v>0.0556</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="20" t="n">
@@ -16713,7 +17452,7 @@
       <c r="E64" s="22" t="n">
         <v>0.0607</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="20" t="n">
@@ -16728,7 +17467,7 @@
       <c r="E65" s="22" t="n">
         <v>0.0676</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="20" t="n">
@@ -16743,7 +17482,7 @@
       <c r="E66" s="22" t="n">
         <v>0.0749</v>
       </c>
-      <c r="F66" s="42"/>
+      <c r="F66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="20" t="n">
@@ -16758,7 +17497,7 @@
       <c r="E67" s="22" t="n">
         <v>0.0821</v>
       </c>
-      <c r="F67" s="42"/>
+      <c r="F67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="20" t="n">
@@ -16773,7 +17512,7 @@
       <c r="E68" s="22" t="n">
         <v>-0.0405124354142656</v>
       </c>
-      <c r="F68" s="42"/>
+      <c r="F68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="20" t="n">
@@ -16788,7 +17527,7 @@
       <c r="E69" s="22" t="n">
         <v>-0.107091088980444</v>
       </c>
-      <c r="F69" s="42"/>
+      <c r="F69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="20" t="n">
@@ -16803,7 +17542,7 @@
       <c r="E70" s="22" t="n">
         <v>-0.162436477599385</v>
       </c>
-      <c r="F70" s="42"/>
+      <c r="F70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="20" t="n">
@@ -16818,7 +17557,7 @@
       <c r="E71" s="22" t="n">
         <v>-0.215159215452594</v>
       </c>
-      <c r="F71" s="42"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="20" t="n">
@@ -16833,7 +17572,7 @@
       <c r="E72" s="22" t="n">
         <v>-0.265617718724299</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="20" t="n">
@@ -16848,7 +17587,7 @@
       <c r="E73" s="22" t="n">
         <v>-0.311499322573837</v>
       </c>
-      <c r="F73" s="42"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="20" t="n">
@@ -16863,7 +17602,7 @@
       <c r="E74" s="22" t="n">
         <v>-0.349222325976231</v>
       </c>
-      <c r="F74" s="42"/>
+      <c r="F74" s="39"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="20" t="n">
@@ -16878,7 +17617,7 @@
       <c r="E75" s="22" t="n">
         <v>-0.362084818917018</v>
       </c>
-      <c r="F75" s="42"/>
+      <c r="F75" s="39"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="20" t="n">
@@ -16893,7 +17632,7 @@
       <c r="E76" s="22" t="n">
         <v>-0.356036335520408</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="39"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="20" t="n">
@@ -16908,7 +17647,7 @@
       <c r="E77" s="22" t="n">
         <v>-0.336907869526771</v>
       </c>
-      <c r="F77" s="42"/>
+      <c r="F77" s="39"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="20" t="n">
@@ -16923,7 +17662,7 @@
       <c r="E78" s="22" t="n">
         <v>-0.314239960689974</v>
       </c>
-      <c r="F78" s="42"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="20" t="n">
@@ -16938,7 +17677,7 @@
       <c r="E79" s="22" t="n">
         <v>-0.302544805285339</v>
       </c>
-      <c r="F79" s="42"/>
+      <c r="F79" s="39"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="20" t="n">
@@ -16953,7 +17692,7 @@
       <c r="E80" s="22" t="n">
         <v>-0.328619718913337</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="39"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="20" t="n">
@@ -16968,7 +17707,7 @@
       <c r="E81" s="22" t="n">
         <v>-0.412765694122135</v>
       </c>
-      <c r="F81" s="42"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="20" t="n">
@@ -16983,7 +17722,7 @@
       <c r="E82" s="22" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F82" s="42"/>
+      <c r="F82" s="39"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="20" t="n">
@@ -16998,7 +17737,7 @@
       <c r="E83" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F83" s="42"/>
+      <c r="F83" s="39"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="25" t="n">
@@ -17039,7 +17778,7 @@
   <dimension ref="B1:N84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="J38:M38 F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="J37:M37 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17176,7 +17915,7 @@
       <c r="E7" s="22" t="n">
         <v>0.4</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="39"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -17198,7 +17937,7 @@
       <c r="E8" s="22" t="n">
         <v>0.0476518611597471</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="39"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
@@ -17220,7 +17959,7 @@
       <c r="E9" s="22" t="n">
         <v>0.148926541459432</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="39"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -17242,7 +17981,7 @@
       <c r="E10" s="22" t="n">
         <v>0.206921600466241</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="39"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -17264,7 +18003,7 @@
       <c r="E11" s="22" t="n">
         <v>0.262435548984542</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="39"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -17286,7 +18025,7 @@
       <c r="E12" s="22" t="n">
         <v>0.321608936242414</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="39"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -17308,7 +18047,7 @@
       <c r="E13" s="22" t="n">
         <v>0.381442290448107</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="39"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -17330,7 +18069,7 @@
       <c r="E14" s="22" t="n">
         <v>0.43568789885305</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="39"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -17352,7 +18091,7 @@
       <c r="E15" s="22" t="n">
         <v>0.477305766062603</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="39"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -17374,7 +18113,7 @@
       <c r="E16" s="22" t="n">
         <v>0.49089095688194</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -17396,7 +18135,7 @@
       <c r="E17" s="22" t="n">
         <v>0.486890506870591</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -17418,7 +18157,7 @@
       <c r="E18" s="22" t="n">
         <v>0.471450708833683</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="39"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
@@ -17440,7 +18179,7 @@
       <c r="E19" s="22" t="n">
         <v>0.454646466598023</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="39"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
@@ -17462,7 +18201,7 @@
       <c r="E20" s="22" t="n">
         <v>0.452232110934746</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="39"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
@@ -17484,7 +18223,7 @@
       <c r="E21" s="22" t="n">
         <v>0.494594962615069</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="39"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -17506,7 +18245,7 @@
       <c r="E22" s="22" t="n">
         <v>0.588351703790982</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="39"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -17528,7 +18267,7 @@
       <c r="E23" s="22" t="n">
         <v>0.381209840004949</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -17550,7 +18289,7 @@
       <c r="E24" s="22" t="n">
         <v>0.0796</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="39"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -17572,7 +18311,7 @@
       <c r="E25" s="22" t="n">
         <v>0.0807</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="39"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -17594,7 +18333,7 @@
       <c r="E26" s="22" t="n">
         <v>0.0816</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="39"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -17616,7 +18355,7 @@
       <c r="E27" s="22" t="n">
         <v>0.0825</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="39"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -17638,7 +18377,7 @@
       <c r="E28" s="22" t="n">
         <v>0.0835</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="39"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
@@ -17660,7 +18399,7 @@
       <c r="E29" s="22" t="n">
         <v>0.0843</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="39"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
@@ -17682,7 +18421,7 @@
       <c r="E30" s="22" t="n">
         <v>0.0851</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="39"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
@@ -17704,7 +18443,7 @@
       <c r="E31" s="22" t="n">
         <v>0.086</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="39"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
@@ -17726,7 +18465,7 @@
       <c r="E32" s="22" t="n">
         <v>0.0866</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="39"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
@@ -17748,7 +18487,7 @@
       <c r="E33" s="22" t="n">
         <v>0.0875</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
@@ -17770,7 +18509,7 @@
       <c r="E34" s="22" t="n">
         <v>0.088</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="39"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
@@ -17792,7 +18531,7 @@
       <c r="E35" s="22" t="n">
         <v>0.0887</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="39"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
@@ -17814,7 +18553,7 @@
       <c r="E36" s="22" t="n">
         <v>0.0889</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="39"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="31" t="s">
@@ -17844,15 +18583,15 @@
       <c r="E37" s="22" t="n">
         <v>0.0887</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="39"/>
       <c r="H37" s="34" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
       <c r="N37" s="49"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17868,15 +18607,15 @@
       <c r="E38" s="22" t="n">
         <v>0.0879</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="H38" s="37" t="s">
+      <c r="F38" s="39"/>
+      <c r="H38" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="37"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
-      <c r="M38" s="38"/>
+      <c r="M38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="20" t="n">
@@ -17891,7 +18630,7 @@
       <c r="E39" s="22" t="n">
         <v>0.0871</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="20" t="n">
@@ -17906,7 +18645,7 @@
       <c r="E40" s="22" t="n">
         <v>0.0859</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="20" t="n">
@@ -17921,7 +18660,7 @@
       <c r="E41" s="22" t="n">
         <v>0.0841</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="20" t="n">
@@ -17936,7 +18675,7 @@
       <c r="E42" s="22" t="n">
         <v>0.082</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="20" t="n">
@@ -17951,7 +18690,7 @@
       <c r="E43" s="22" t="n">
         <v>0.0789</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="20" t="n">
@@ -17966,7 +18705,7 @@
       <c r="E44" s="22" t="n">
         <v>0.0759</v>
       </c>
-      <c r="F44" s="42"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="20" t="n">
@@ -17981,7 +18720,7 @@
       <c r="E45" s="22" t="n">
         <v>0.0726</v>
       </c>
-      <c r="F45" s="42"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="20" t="n">
@@ -17996,7 +18735,7 @@
       <c r="E46" s="22" t="n">
         <v>0.0694</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="20" t="n">
@@ -18011,7 +18750,7 @@
       <c r="E47" s="22" t="n">
         <v>0.0666</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="20" t="n">
@@ -18026,7 +18765,7 @@
       <c r="E48" s="22" t="n">
         <v>0.0638</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="20" t="n">
@@ -18041,7 +18780,7 @@
       <c r="E49" s="22" t="n">
         <v>0.0613</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="20" t="n">
@@ -18056,7 +18795,7 @@
       <c r="E50" s="22" t="n">
         <v>0.0593</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="20" t="n">
@@ -18071,7 +18810,7 @@
       <c r="E51" s="22" t="n">
         <v>0.0578</v>
       </c>
-      <c r="F51" s="42"/>
+      <c r="F51" s="39"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="20" t="n">
@@ -18086,7 +18825,7 @@
       <c r="E52" s="22" t="n">
         <v>0.0567</v>
       </c>
-      <c r="F52" s="42"/>
+      <c r="F52" s="39"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="20" t="n">
@@ -18101,7 +18840,7 @@
       <c r="E53" s="22" t="n">
         <v>0.0558</v>
       </c>
-      <c r="F53" s="42"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="20" t="n">
@@ -18116,7 +18855,7 @@
       <c r="E54" s="22" t="n">
         <v>0.0551</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="39"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="20" t="n">
@@ -18131,7 +18870,7 @@
       <c r="E55" s="22" t="n">
         <v>0.055</v>
       </c>
-      <c r="F55" s="42"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="20" t="n">
@@ -18146,7 +18885,7 @@
       <c r="E56" s="22" t="n">
         <v>0.0548</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="20" t="n">
@@ -18161,7 +18900,7 @@
       <c r="E57" s="22" t="n">
         <v>0.0548</v>
       </c>
-      <c r="F57" s="42"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="20" t="n">
@@ -18176,7 +18915,7 @@
       <c r="E58" s="22" t="n">
         <v>0.0543</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="20" t="n">
@@ -18191,7 +18930,7 @@
       <c r="E59" s="22" t="n">
         <v>0.0548</v>
       </c>
-      <c r="F59" s="42"/>
+      <c r="F59" s="39"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="20" t="n">
@@ -18206,7 +18945,7 @@
       <c r="E60" s="22" t="n">
         <v>0.0555</v>
       </c>
-      <c r="F60" s="42"/>
+      <c r="F60" s="39"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="20" t="n">
@@ -18221,7 +18960,7 @@
       <c r="E61" s="22" t="n">
         <v>0.0566</v>
       </c>
-      <c r="F61" s="42"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="20" t="n">
@@ -18236,7 +18975,7 @@
       <c r="E62" s="22" t="n">
         <v>0.0575</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="20" t="n">
@@ -18251,7 +18990,7 @@
       <c r="E63" s="22" t="n">
         <v>0.059</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="20" t="n">
@@ -18266,7 +19005,7 @@
       <c r="E64" s="22" t="n">
         <v>0.0608</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="20" t="n">
@@ -18281,7 +19020,7 @@
       <c r="E65" s="22" t="n">
         <v>0.0625</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="20" t="n">
@@ -18296,7 +19035,7 @@
       <c r="E66" s="22" t="n">
         <v>0.0647</v>
       </c>
-      <c r="F66" s="42"/>
+      <c r="F66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="20" t="n">
@@ -18311,7 +19050,7 @@
       <c r="E67" s="22" t="n">
         <v>0.0674</v>
       </c>
-      <c r="F67" s="42"/>
+      <c r="F67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="20" t="n">
@@ -18326,7 +19065,7 @@
       <c r="E68" s="22" t="n">
         <v>0.07</v>
       </c>
-      <c r="F68" s="42"/>
+      <c r="F68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="20" t="n">
@@ -18341,7 +19080,7 @@
       <c r="E69" s="22" t="n">
         <v>-0.0306339470817556</v>
       </c>
-      <c r="F69" s="42"/>
+      <c r="F69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="20" t="n">
@@ -18356,7 +19095,7 @@
       <c r="E70" s="22" t="n">
         <v>-0.0975375553783051</v>
       </c>
-      <c r="F70" s="42"/>
+      <c r="F70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="20" t="n">
@@ -18371,7 +19110,7 @@
       <c r="E71" s="22" t="n">
         <v>-0.14999945328733</v>
       </c>
-      <c r="F71" s="42"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="20" t="n">
@@ -18386,7 +19125,7 @@
       <c r="E72" s="22" t="n">
         <v>-0.199790433939031</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="39"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="20" t="n">
@@ -18401,7 +19140,7 @@
       <c r="E73" s="22" t="n">
         <v>-0.248268455840834</v>
       </c>
-      <c r="F73" s="42"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="20" t="n">
@@ -18416,7 +19155,7 @@
       <c r="E74" s="22" t="n">
         <v>-0.293393909668291</v>
       </c>
-      <c r="F74" s="42"/>
+      <c r="F74" s="39"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="20" t="n">
@@ -18431,7 +19170,7 @@
       <c r="E75" s="22" t="n">
         <v>-0.331494233937397</v>
       </c>
-      <c r="F75" s="42"/>
+      <c r="F75" s="39"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="20" t="n">
@@ -18446,7 +19185,7 @@
       <c r="E76" s="22" t="n">
         <v>-0.345079424756734</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="39"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="20" t="n">
@@ -18461,7 +19200,7 @@
       <c r="E77" s="22" t="n">
         <v>-0.341078974745385</v>
       </c>
-      <c r="F77" s="42"/>
+      <c r="F77" s="39"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="20" t="n">
@@ -18476,7 +19215,7 @@
       <c r="E78" s="22" t="n">
         <v>-0.325639176708477</v>
       </c>
-      <c r="F78" s="42"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="20" t="n">
@@ -18491,7 +19230,7 @@
       <c r="E79" s="22" t="n">
         <v>-0.308834934472817</v>
       </c>
-      <c r="F79" s="42"/>
+      <c r="F79" s="39"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="20" t="n">
@@ -18506,7 +19245,7 @@
       <c r="E80" s="22" t="n">
         <v>-0.30642057880954</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="39"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="20" t="n">
@@ -18521,7 +19260,7 @@
       <c r="E81" s="22" t="n">
         <v>-0.348783430489863</v>
       </c>
-      <c r="F81" s="42"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="20" t="n">
@@ -18536,7 +19275,7 @@
       <c r="E82" s="22" t="n">
         <v>-0.449063737367224</v>
       </c>
-      <c r="F82" s="42"/>
+      <c r="F82" s="39"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="20" t="n">
@@ -18551,7 +19290,7 @@
       <c r="E83" s="21" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F83" s="42"/>
+      <c r="F83" s="39"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="25" t="n">
